--- a/application/modules/upload/controllers/upload.xlsx
+++ b/application/modules/upload/controllers/upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Test ID</t>
   </si>
@@ -65,16 +65,16 @@
     <t>Software Version</t>
   </si>
   <si>
-    <t>PIMA-D-003020</t>
+    <t>PIMA-D-003014</t>
   </si>
   <si>
     <t>PIMA CD4</t>
   </si>
   <si>
-    <t>01393 CRD</t>
-  </si>
-  <si>
-    <t>WANJUI</t>
+    <t>JBAPTISTE</t>
+  </si>
+  <si>
+    <t>JUVENAL</t>
   </si>
   <si>
     <t>pass</t>
@@ -83,10 +83,10 @@
     <t>0.39.1</t>
   </si>
   <si>
-    <t>C 2977</t>
-  </si>
-  <si>
-    <t>C 3069</t>
+    <t>1234567890A</t>
+  </si>
+  <si>
+    <t>170_T1</t>
   </si>
   <si>
     <t>Manual abort Error 206</t>
@@ -95,7 +95,7 @@
     <t>overruled</t>
   </si>
   <si>
-    <t>C 8617</t>
+    <t>171_T1</t>
   </si>
   <si>
     <t>No sample detected Error 201</t>
@@ -104,34 +104,76 @@
     <t>fail</t>
   </si>
   <si>
+    <t>172_T1</t>
+  </si>
+  <si>
     <t>Test not finished Error 203</t>
   </si>
   <si>
-    <t>00018/CRD</t>
+    <t>175_T1</t>
   </si>
   <si>
     <t>Test not finished Error 202</t>
   </si>
   <si>
+    <t>180_FS</t>
+  </si>
+  <si>
     <t>Invalid Test Error 810</t>
   </si>
   <si>
-    <t>00118/MIM</t>
-  </si>
-  <si>
-    <t>0022/12</t>
-  </si>
-  <si>
-    <t>00419 CRD</t>
-  </si>
-  <si>
-    <t>005/2010</t>
-  </si>
-  <si>
-    <t>0050/11</t>
-  </si>
-  <si>
-    <t>00544 CRD</t>
+    <t>182_FS</t>
+  </si>
+  <si>
+    <t>184_FS</t>
+  </si>
+  <si>
+    <t>186_FS</t>
+  </si>
+  <si>
+    <t>188_FS</t>
+  </si>
+  <si>
+    <t>189_FS</t>
+  </si>
+  <si>
+    <t>191_FS</t>
+  </si>
+  <si>
+    <t>194_FS</t>
+  </si>
+  <si>
+    <t>176_T1</t>
+  </si>
+  <si>
+    <t>177_T1</t>
+  </si>
+  <si>
+    <t>178_T1</t>
+  </si>
+  <si>
+    <t>179_T1</t>
+  </si>
+  <si>
+    <t>180_T1</t>
+  </si>
+  <si>
+    <t>181_T1</t>
+  </si>
+  <si>
+    <t>182_T1</t>
+  </si>
+  <si>
+    <t>183_T1</t>
+  </si>
+  <si>
+    <t>184_T1</t>
+  </si>
+  <si>
+    <t>185_T1</t>
+  </si>
+  <si>
+    <t>186_T1</t>
   </si>
 </sst>
 </file>
@@ -479,23 +521,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="true" style="0"/>
-    <col min="2" max="2" width="23" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22" customWidth="true" style="0"/>
-    <col min="4" max="4" width="40" customWidth="true" style="0"/>
-    <col min="5" max="5" width="32" customWidth="true" style="0"/>
-    <col min="6" max="6" width="25" customWidth="true" style="0"/>
-    <col min="7" max="7" width="24" customWidth="true" style="0"/>
-    <col min="8" max="8" width="24" customWidth="true" style="0"/>
-    <col min="9" max="9" width="22" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14" customWidth="true" style="0"/>
+    <col min="2" max="2" width="29" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23" customWidth="true" style="0"/>
+    <col min="4" max="4" width="26" customWidth="true" style="0"/>
+    <col min="5" max="5" width="31" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
+    <col min="9" max="9" width="14" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -565,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>1148</v>
+        <v>1088</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
@@ -613,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
@@ -751,11 +792,11 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -799,10 +840,10 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -845,11 +886,11 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>9</v>
+      <c r="E8" t="s">
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -893,10 +934,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -939,11 +980,11 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>158</v>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -986,11 +1027,11 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>162</v>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -1033,11 +1074,11 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
-        <v>2</v>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -1080,11 +1121,11 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E13">
-        <v>206</v>
+      <c r="E13" t="s">
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1127,11 +1168,11 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
-        <v>206</v>
+      <c r="E14" t="s">
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
@@ -1175,10 +1216,10 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
@@ -1222,10 +1263,10 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
@@ -1268,11 +1309,11 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E17">
-        <v>23</v>
+      <c r="E17" t="s">
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
@@ -1315,11 +1356,11 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
-        <v>24</v>
+      <c r="E18" t="s">
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
@@ -1362,11 +1403,11 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19">
-        <v>252</v>
+      <c r="E19" t="s">
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
@@ -1409,11 +1450,11 @@
       <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E20">
-        <v>26</v>
+      <c r="E20" t="s">
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
@@ -1456,11 +1497,11 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21">
-        <v>3</v>
+      <c r="E21" t="s">
+        <v>47</v>
       </c>
       <c r="F21">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
@@ -1503,11 +1544,11 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22">
-        <v>334</v>
+      <c r="E22" t="s">
+        <v>48</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
@@ -1550,11 +1591,11 @@
       <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E23">
-        <v>35</v>
+      <c r="E23" t="s">
+        <v>49</v>
       </c>
       <c r="F23">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
         <v>19</v>
@@ -1598,10 +1639,10 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>1273</v>
+        <v>1213</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
@@ -1644,11 +1685,11 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
-      <c r="E25">
-        <v>45</v>
+      <c r="E25" t="s">
+        <v>51</v>
       </c>
       <c r="F25">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -1691,11 +1732,11 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E26">
-        <v>47</v>
+      <c r="E26" t="s">
+        <v>52</v>
       </c>
       <c r="F26">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
@@ -1722,476 +1763,6 @@
         <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27">
-        <v>220</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="1">
-        <v>41002</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1.4458336666667</v>
-      </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>50</v>
-      </c>
-      <c r="F28">
-        <v>265</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="1">
-        <v>41003</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1.4875003333333</v>
-      </c>
-      <c r="K28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29">
-        <v>310</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="1">
-        <v>41004</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1.529167</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30">
-        <v>51</v>
-      </c>
-      <c r="F30">
-        <v>355</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="1">
-        <v>41005</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1.5708336666667</v>
-      </c>
-      <c r="K30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31">
-        <v>52</v>
-      </c>
-      <c r="F31">
-        <v>400</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="1">
-        <v>41006</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1.6125003333333</v>
-      </c>
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>53</v>
-      </c>
-      <c r="F32">
-        <v>445</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="1">
-        <v>41007</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1.654167</v>
-      </c>
-      <c r="K32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33">
-        <v>54</v>
-      </c>
-      <c r="F33">
-        <v>490</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="1">
-        <v>41008</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1.6958336666667</v>
-      </c>
-      <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>54</v>
-      </c>
-      <c r="F34">
-        <v>535</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="1">
-        <v>41009</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1.7375003333333</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35">
-        <v>580</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="1">
-        <v>41010</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1.779167</v>
-      </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>58</v>
-      </c>
-      <c r="F36">
-        <v>625</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="1">
-        <v>41011</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1.8208336666667</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" t="s">
         <v>21</v>
       </c>
     </row>

--- a/application/modules/upload/controllers/upload.xlsx
+++ b/application/modules/upload/controllers/upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="959">
   <si>
     <t>Test ID</t>
   </si>
@@ -65,13 +65,13 @@
     <t>Software Version</t>
   </si>
   <si>
-    <t>PIMA-D-003014</t>
+    <t>PIMA-D-003017</t>
   </si>
   <si>
     <t>PIMA CD4</t>
   </si>
   <si>
-    <t>CCC/PD/56446</t>
+    <t>1/PMT/CCC/003017/1</t>
   </si>
   <si>
     <t>WANJUI</t>
@@ -83,10 +83,10 @@
     <t>0.39.1</t>
   </si>
   <si>
-    <t>CCC/PD/56447</t>
-  </si>
-  <si>
-    <t>CCC/PD/56448</t>
+    <t>2/PMT/CCC/003017/2</t>
+  </si>
+  <si>
+    <t>3/PMT/CCC/003017/3</t>
   </si>
   <si>
     <t>Manual abort Error 206</t>
@@ -95,7 +95,7 @@
     <t>overruled</t>
   </si>
   <si>
-    <t>CCC/PD/56449</t>
+    <t>PMT/CCC/003017/4</t>
   </si>
   <si>
     <t>No sample detected Error 201</t>
@@ -104,2938 +104,2794 @@
     <t>fail</t>
   </si>
   <si>
-    <t>CCC/PD/56450</t>
+    <t>PMT/CCC/003017/5</t>
   </si>
   <si>
     <t>Test not finished Error 203</t>
   </si>
   <si>
-    <t>CCC/PD/56451</t>
+    <t>PMT/CCC/003017/6</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/7</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/8</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/9</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/10</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/11</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/12</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/13</t>
+  </si>
+  <si>
+    <t>Invalid Test Error 810</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/14</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/15</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/16</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/17</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/18</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/19</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/20</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/21</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/22</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/23</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/24</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/25</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/26</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/27</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/28</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/29</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/30</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/31</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/32</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/33</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/34</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/35</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/36</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/37</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/38</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/39</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/40</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/41</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/42</t>
+  </si>
+  <si>
+    <t>CASSIE</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/43</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/44</t>
+  </si>
+  <si>
+    <t>Electronic Errors 312</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/45</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/46</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/47</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/48</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/49</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/50</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/51</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/52</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/53</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/54</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/55</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/56</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/57</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/58</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/59</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/60</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/61</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/62</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/63</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/64</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/65</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/66</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/67</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/68</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/69</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/70</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/71</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/72</t>
+  </si>
+  <si>
+    <t>0.39.2</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/73</t>
+  </si>
+  <si>
+    <t>0.39.3</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/74</t>
+  </si>
+  <si>
+    <t>0.39.4</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/75</t>
+  </si>
+  <si>
+    <t>0.39.5</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/76</t>
+  </si>
+  <si>
+    <t>0.39.6</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/77</t>
+  </si>
+  <si>
+    <t>0.39.7</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/78</t>
+  </si>
+  <si>
+    <t>0.39.8</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/79</t>
+  </si>
+  <si>
+    <t>0.39.9</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/80</t>
+  </si>
+  <si>
+    <t>0.39.10</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/81</t>
+  </si>
+  <si>
+    <t>0.39.11</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/82</t>
+  </si>
+  <si>
+    <t>0.39.12</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/83</t>
+  </si>
+  <si>
+    <t>0.39.13</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/84</t>
+  </si>
+  <si>
+    <t>0.39.14</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/85</t>
+  </si>
+  <si>
+    <t>0.39.15</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/86</t>
+  </si>
+  <si>
+    <t>0.39.16</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/87</t>
+  </si>
+  <si>
+    <t>0.39.17</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/88</t>
+  </si>
+  <si>
+    <t>0.39.18</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/89</t>
+  </si>
+  <si>
+    <t>0.39.19</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/90</t>
+  </si>
+  <si>
+    <t>0.39.20</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/91</t>
+  </si>
+  <si>
+    <t>0.39.21</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/92</t>
+  </si>
+  <si>
+    <t>0.39.22</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/93</t>
+  </si>
+  <si>
+    <t>0.39.23</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/94</t>
+  </si>
+  <si>
+    <t>0.39.24</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/95</t>
+  </si>
+  <si>
+    <t>0.39.25</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/96</t>
+  </si>
+  <si>
+    <t>0.39.26</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/97</t>
+  </si>
+  <si>
+    <t>0.39.27</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/98</t>
+  </si>
+  <si>
+    <t>0.39.28</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/99</t>
+  </si>
+  <si>
+    <t>0.39.29</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/100</t>
+  </si>
+  <si>
+    <t>0.39.30</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/101</t>
+  </si>
+  <si>
+    <t>0.39.31</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/102</t>
+  </si>
+  <si>
+    <t>0.39.32</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/103</t>
+  </si>
+  <si>
+    <t>0.39.33</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/104</t>
+  </si>
+  <si>
+    <t>0.39.34</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/105</t>
+  </si>
+  <si>
+    <t>0.39.35</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/106</t>
+  </si>
+  <si>
+    <t>0.39.36</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/107</t>
+  </si>
+  <si>
+    <t>0.39.37</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/108</t>
+  </si>
+  <si>
+    <t>0.39.38</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/109</t>
+  </si>
+  <si>
+    <t>0.39.39</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/110</t>
+  </si>
+  <si>
+    <t>0.39.40</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/111</t>
+  </si>
+  <si>
+    <t>0.39.41</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/112</t>
+  </si>
+  <si>
+    <t>0.39.42</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/113</t>
+  </si>
+  <si>
+    <t>0.39.43</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/114</t>
+  </si>
+  <si>
+    <t>0.39.44</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/115</t>
+  </si>
+  <si>
+    <t>0.39.45</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/116</t>
+  </si>
+  <si>
+    <t>0.39.46</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/117</t>
+  </si>
+  <si>
+    <t>0.39.47</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/118</t>
+  </si>
+  <si>
+    <t>0.39.48</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/119</t>
+  </si>
+  <si>
+    <t>0.39.49</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/120</t>
+  </si>
+  <si>
+    <t>0.39.50</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/121</t>
+  </si>
+  <si>
+    <t>0.39.51</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/122</t>
+  </si>
+  <si>
+    <t>0.39.52</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/123</t>
+  </si>
+  <si>
+    <t>0.39.53</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/124</t>
+  </si>
+  <si>
+    <t>0.39.54</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/125</t>
+  </si>
+  <si>
+    <t>0.39.55</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/126</t>
+  </si>
+  <si>
+    <t>0.39.56</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/127</t>
+  </si>
+  <si>
+    <t>0.39.57</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/128</t>
+  </si>
+  <si>
+    <t>0.39.58</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/129</t>
+  </si>
+  <si>
+    <t>0.39.59</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/130</t>
+  </si>
+  <si>
+    <t>0.39.60</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/131</t>
+  </si>
+  <si>
+    <t>0.39.61</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/132</t>
+  </si>
+  <si>
+    <t>0.39.62</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/133</t>
+  </si>
+  <si>
+    <t>0.39.63</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/134</t>
+  </si>
+  <si>
+    <t>0.39.64</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/135</t>
+  </si>
+  <si>
+    <t>0.39.65</t>
+  </si>
+  <si>
+    <t>PMT/CCC/003017/136</t>
   </si>
   <si>
     <t>Test not finished Error 202</t>
   </si>
   <si>
-    <t>CCC/PD/56452</t>
-  </si>
-  <si>
-    <t>Invalid Test Error 810</t>
-  </si>
-  <si>
-    <t>CCC/PD/56453</t>
-  </si>
-  <si>
-    <t>CCC/PD/56454</t>
-  </si>
-  <si>
-    <t>CCC/PD/56455</t>
-  </si>
-  <si>
-    <t>CCC/PD/56456</t>
-  </si>
-  <si>
-    <t>CCC/PD/56457</t>
-  </si>
-  <si>
-    <t>CCC/PD/56458</t>
-  </si>
-  <si>
-    <t>CCC/PD/56459</t>
-  </si>
-  <si>
-    <t>CCC/PD/56460</t>
-  </si>
-  <si>
-    <t>CCC/PD/56461</t>
-  </si>
-  <si>
-    <t>CCC/PD/56462</t>
-  </si>
-  <si>
-    <t>CCC/PD/56463</t>
-  </si>
-  <si>
-    <t>CCC/PD/56464</t>
-  </si>
-  <si>
-    <t>CCC/PD/56465</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/89</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/90</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/91</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/92</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/93</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/94</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/95</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/96</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/97</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/98</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/99</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/100</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/101</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/102</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/103</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/104</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/105</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/106</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/107</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/108</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/109</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/110</t>
-  </si>
-  <si>
-    <t>CASSIE</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/111</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/112</t>
-  </si>
-  <si>
-    <t>Electronic Errors 312</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/113</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/114</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/115</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/116</t>
-  </si>
-  <si>
-    <t>CCC/MM/812/117</t>
-  </si>
-  <si>
-    <t>PMT/56/67</t>
-  </si>
-  <si>
-    <t>PMT/56/68</t>
-  </si>
-  <si>
-    <t>PMT/56/69</t>
-  </si>
-  <si>
-    <t>PMT/56/70</t>
-  </si>
-  <si>
-    <t>PMT/56/71</t>
-  </si>
-  <si>
-    <t>PMT/56/72</t>
-  </si>
-  <si>
-    <t>PMT/56/73</t>
-  </si>
-  <si>
-    <t>PMT/56/74</t>
-  </si>
-  <si>
-    <t>PMT/56/75</t>
-  </si>
-  <si>
-    <t>PMT/56/76</t>
-  </si>
-  <si>
-    <t>PMT/56/77</t>
-  </si>
-  <si>
-    <t>PMT/56/78</t>
-  </si>
-  <si>
-    <t>PMT/56/79</t>
-  </si>
-  <si>
-    <t>PMT/56/80</t>
-  </si>
-  <si>
-    <t>PMT/56/81</t>
-  </si>
-  <si>
-    <t>PMT/56/82</t>
-  </si>
-  <si>
-    <t>PMT/56/83</t>
-  </si>
-  <si>
-    <t>PMT/56/84</t>
-  </si>
-  <si>
-    <t>PMT/56/85</t>
-  </si>
-  <si>
-    <t>PMT/56/86</t>
-  </si>
-  <si>
-    <t>PMT/56/87</t>
-  </si>
-  <si>
-    <t>PMT/56/88</t>
-  </si>
-  <si>
-    <t>CCC/89/11</t>
-  </si>
-  <si>
-    <t>0.39.2</t>
-  </si>
-  <si>
-    <t>CCC/89/12</t>
-  </si>
-  <si>
-    <t>0.39.3</t>
-  </si>
-  <si>
-    <t>CCC/89/13</t>
-  </si>
-  <si>
-    <t>0.39.4</t>
-  </si>
-  <si>
-    <t>CCC/89/14</t>
-  </si>
-  <si>
-    <t>0.39.5</t>
-  </si>
-  <si>
-    <t>CCC/89/15</t>
-  </si>
-  <si>
-    <t>0.39.6</t>
-  </si>
-  <si>
-    <t>CCC/89/16</t>
-  </si>
-  <si>
-    <t>0.39.7</t>
-  </si>
-  <si>
-    <t>CCC/89/17</t>
-  </si>
-  <si>
-    <t>0.39.8</t>
-  </si>
-  <si>
-    <t>CCC/89/18</t>
-  </si>
-  <si>
-    <t>0.39.9</t>
-  </si>
-  <si>
-    <t>CCC/89/19</t>
-  </si>
-  <si>
-    <t>0.39.10</t>
-  </si>
-  <si>
-    <t>CCC/89/20</t>
-  </si>
-  <si>
-    <t>0.39.11</t>
-  </si>
-  <si>
-    <t>CCC/89/21</t>
-  </si>
-  <si>
-    <t>0.39.12</t>
-  </si>
-  <si>
-    <t>CCC/89/22</t>
-  </si>
-  <si>
-    <t>0.39.13</t>
-  </si>
-  <si>
-    <t>CCC/89/23</t>
-  </si>
-  <si>
-    <t>0.39.14</t>
-  </si>
-  <si>
-    <t>CCC/89/24</t>
-  </si>
-  <si>
-    <t>0.39.15</t>
-  </si>
-  <si>
-    <t>CCC/89/25</t>
-  </si>
-  <si>
-    <t>0.39.16</t>
-  </si>
-  <si>
-    <t>CCC/89/26</t>
-  </si>
-  <si>
-    <t>0.39.17</t>
-  </si>
-  <si>
-    <t>CCC/89/27</t>
-  </si>
-  <si>
-    <t>0.39.18</t>
-  </si>
-  <si>
-    <t>CCC/89/28</t>
-  </si>
-  <si>
-    <t>0.39.19</t>
-  </si>
-  <si>
-    <t>CCC/89/29</t>
-  </si>
-  <si>
-    <t>0.39.20</t>
-  </si>
-  <si>
-    <t>CCC/89/30</t>
-  </si>
-  <si>
-    <t>0.39.21</t>
-  </si>
-  <si>
-    <t>CCC/89/31</t>
-  </si>
-  <si>
-    <t>0.39.22</t>
-  </si>
-  <si>
-    <t>CCC/89/32</t>
-  </si>
-  <si>
-    <t>0.39.23</t>
-  </si>
-  <si>
-    <t>CCC/89/33</t>
-  </si>
-  <si>
-    <t>0.39.24</t>
-  </si>
-  <si>
-    <t>CCC/89/34</t>
-  </si>
-  <si>
-    <t>0.39.25</t>
-  </si>
-  <si>
-    <t>CCC/89/35</t>
-  </si>
-  <si>
-    <t>0.39.26</t>
-  </si>
-  <si>
-    <t>CCC/89/36</t>
-  </si>
-  <si>
-    <t>0.39.27</t>
-  </si>
-  <si>
-    <t>CCC/89/37</t>
-  </si>
-  <si>
-    <t>0.39.28</t>
-  </si>
-  <si>
-    <t>CCC/89/38</t>
-  </si>
-  <si>
-    <t>0.39.29</t>
-  </si>
-  <si>
-    <t>CCC/89/39</t>
-  </si>
-  <si>
-    <t>0.39.30</t>
-  </si>
-  <si>
-    <t>CCC/89/40</t>
-  </si>
-  <si>
-    <t>0.39.31</t>
-  </si>
-  <si>
-    <t>CCC/89/41</t>
-  </si>
-  <si>
-    <t>0.39.32</t>
-  </si>
-  <si>
-    <t>CCC/89/42</t>
-  </si>
-  <si>
-    <t>0.39.33</t>
-  </si>
-  <si>
-    <t>CCC/89/43</t>
-  </si>
-  <si>
-    <t>0.39.34</t>
-  </si>
-  <si>
-    <t>CCC/89/44</t>
-  </si>
-  <si>
-    <t>0.39.35</t>
-  </si>
-  <si>
-    <t>CCC/89/45</t>
-  </si>
-  <si>
-    <t>0.39.36</t>
-  </si>
-  <si>
-    <t>CCC/89/46</t>
-  </si>
-  <si>
-    <t>0.39.37</t>
-  </si>
-  <si>
-    <t>CCC/89/47</t>
-  </si>
-  <si>
-    <t>0.39.38</t>
-  </si>
-  <si>
-    <t>CCC/89/48</t>
-  </si>
-  <si>
-    <t>0.39.39</t>
-  </si>
-  <si>
-    <t>CCC/89/49</t>
-  </si>
-  <si>
-    <t>0.39.40</t>
-  </si>
-  <si>
-    <t>CCC/89/50</t>
-  </si>
-  <si>
-    <t>0.39.41</t>
-  </si>
-  <si>
-    <t>CCC/89/51</t>
-  </si>
-  <si>
-    <t>0.39.42</t>
-  </si>
-  <si>
-    <t>CCC/89/52</t>
-  </si>
-  <si>
-    <t>0.39.43</t>
-  </si>
-  <si>
-    <t>CCC/89/53</t>
-  </si>
-  <si>
-    <t>0.39.44</t>
-  </si>
-  <si>
-    <t>CCC/89/54</t>
-  </si>
-  <si>
-    <t>0.39.45</t>
-  </si>
-  <si>
-    <t>CCC/89/55</t>
-  </si>
-  <si>
-    <t>0.39.46</t>
-  </si>
-  <si>
-    <t>CCC/89/56</t>
-  </si>
-  <si>
-    <t>0.39.47</t>
-  </si>
-  <si>
-    <t>CCC/89/57</t>
-  </si>
-  <si>
-    <t>0.39.48</t>
-  </si>
-  <si>
-    <t>CCC/89/58</t>
-  </si>
-  <si>
-    <t>0.39.49</t>
-  </si>
-  <si>
-    <t>CCC/89/59</t>
-  </si>
-  <si>
-    <t>0.39.50</t>
-  </si>
-  <si>
-    <t>CCC/89/60</t>
-  </si>
-  <si>
-    <t>0.39.51</t>
-  </si>
-  <si>
-    <t>CCC/89/61</t>
-  </si>
-  <si>
-    <t>0.39.52</t>
-  </si>
-  <si>
-    <t>CCC/89/62</t>
-  </si>
-  <si>
-    <t>0.39.53</t>
-  </si>
-  <si>
-    <t>CCC/89/63</t>
-  </si>
-  <si>
-    <t>0.39.54</t>
-  </si>
-  <si>
-    <t>CCC/89/64</t>
-  </si>
-  <si>
-    <t>0.39.55</t>
-  </si>
-  <si>
-    <t>CCC/89/65</t>
-  </si>
-  <si>
-    <t>0.39.56</t>
-  </si>
-  <si>
-    <t>CCC/89/66</t>
-  </si>
-  <si>
-    <t>0.39.57</t>
-  </si>
-  <si>
-    <t>CCC/89/67</t>
-  </si>
-  <si>
-    <t>0.39.58</t>
-  </si>
-  <si>
-    <t>CCC/89/68</t>
-  </si>
-  <si>
-    <t>0.39.59</t>
-  </si>
-  <si>
-    <t>CCC/89/69</t>
-  </si>
-  <si>
-    <t>0.39.60</t>
-  </si>
-  <si>
-    <t>CCC/89/70</t>
-  </si>
-  <si>
-    <t>0.39.61</t>
-  </si>
-  <si>
-    <t>CCC/89/71</t>
-  </si>
-  <si>
-    <t>0.39.62</t>
-  </si>
-  <si>
-    <t>CCC/89/72</t>
-  </si>
-  <si>
-    <t>0.39.63</t>
-  </si>
-  <si>
-    <t>CCC/89/73</t>
-  </si>
-  <si>
-    <t>0.39.64</t>
-  </si>
-  <si>
-    <t>CCC/89/74</t>
-  </si>
-  <si>
-    <t>0.39.65</t>
-  </si>
-  <si>
-    <t>CCC/89/75</t>
-  </si>
-  <si>
     <t>0.39.66</t>
   </si>
   <si>
-    <t>CCC/89/76</t>
+    <t>PMT/CCC/003017/137</t>
   </si>
   <si>
     <t>0.39.67</t>
   </si>
   <si>
-    <t>CCC/89/77</t>
+    <t>PMT/CCC/003017/138</t>
   </si>
   <si>
     <t>0.39.68</t>
   </si>
   <si>
-    <t>CCC/89/78</t>
+    <t>PMT/CCC/003017/139</t>
   </si>
   <si>
     <t>0.39.69</t>
   </si>
   <si>
-    <t>CCC/89/79</t>
+    <t>PMT/CCC/003017/140</t>
   </si>
   <si>
     <t>0.39.70</t>
   </si>
   <si>
-    <t>CCC/89/80</t>
+    <t>PMT/CCC/003017/141</t>
   </si>
   <si>
     <t>0.39.71</t>
   </si>
   <si>
-    <t>CCC/89/81</t>
+    <t>PMT/CCC/003017/142</t>
   </si>
   <si>
     <t>0.39.72</t>
   </si>
   <si>
-    <t>CCC/89/82</t>
+    <t>PMT/CCC/003017/143</t>
   </si>
   <si>
     <t>0.39.73</t>
   </si>
   <si>
-    <t>CCC/89/83</t>
+    <t>PMT/CCC/003017/144</t>
   </si>
   <si>
     <t>0.39.74</t>
   </si>
   <si>
-    <t>CCC/89/84</t>
+    <t>PMT/CCC/003017/145</t>
   </si>
   <si>
     <t>0.39.75</t>
   </si>
   <si>
-    <t>CCC/89/85</t>
+    <t>PMT/CCC/003017/146</t>
   </si>
   <si>
     <t>0.39.76</t>
   </si>
   <si>
-    <t>CCC/89/86</t>
+    <t>PMT/CCC/003017/147</t>
   </si>
   <si>
     <t>0.39.77</t>
   </si>
   <si>
-    <t>CCC/89/87</t>
+    <t>PMT/CCC/003017/148</t>
   </si>
   <si>
     <t>0.39.78</t>
   </si>
   <si>
-    <t>CCC/89/88</t>
+    <t>PMT/CCC/003017/149</t>
   </si>
   <si>
     <t>0.39.79</t>
   </si>
   <si>
-    <t>CCC/89/89</t>
+    <t>PMT/CCC/003017/150</t>
   </si>
   <si>
     <t>0.39.80</t>
   </si>
   <si>
-    <t>CCC/89/90</t>
+    <t>PMT/CCC/003017/151</t>
   </si>
   <si>
     <t>0.39.81</t>
   </si>
   <si>
-    <t>CCC/89/91</t>
+    <t>PMT/CCC/003017/152</t>
   </si>
   <si>
     <t>0.39.82</t>
   </si>
   <si>
-    <t>CCC/89/92</t>
+    <t>PMT/CCC/003017/153</t>
   </si>
   <si>
     <t>0.39.83</t>
   </si>
   <si>
-    <t>CCC/89/93</t>
+    <t>PMT/CCC/003017/154</t>
   </si>
   <si>
     <t>0.39.84</t>
   </si>
   <si>
-    <t>CCC/89/94</t>
+    <t>PMT/CCC/003017/155</t>
   </si>
   <si>
     <t>0.39.85</t>
   </si>
   <si>
-    <t>CCC/89/95</t>
+    <t>PMT/CCC/003017/156</t>
   </si>
   <si>
     <t>0.39.86</t>
   </si>
   <si>
-    <t>CCC/89/96</t>
+    <t>PMT/CCC/003017/157</t>
   </si>
   <si>
     <t>0.39.87</t>
   </si>
   <si>
-    <t>CCC/89/97</t>
+    <t>PMT/CCC/003017/158</t>
   </si>
   <si>
     <t>0.39.88</t>
   </si>
   <si>
-    <t>CCC/89/98</t>
+    <t>PMT/CCC/003017/159</t>
   </si>
   <si>
     <t>0.39.89</t>
   </si>
   <si>
-    <t>CCC/89/99</t>
+    <t>PMT/CCC/003017/160</t>
   </si>
   <si>
     <t>0.39.90</t>
   </si>
   <si>
-    <t>CCC/89/100</t>
+    <t>PMT/CCC/003017/161</t>
   </si>
   <si>
     <t>0.39.91</t>
   </si>
   <si>
-    <t>CCC/89/101</t>
+    <t>PMT/CCC/003017/162</t>
   </si>
   <si>
     <t>0.39.92</t>
   </si>
   <si>
-    <t>CCC/89/102</t>
+    <t>PMT/CCC/003017/163</t>
   </si>
   <si>
     <t>0.39.93</t>
   </si>
   <si>
-    <t>CCC/89/103</t>
+    <t>PMT/CCC/003017/164</t>
   </si>
   <si>
     <t>0.39.94</t>
   </si>
   <si>
-    <t>CCC/89/104</t>
+    <t>PMT/CCC/003017/165</t>
   </si>
   <si>
     <t>0.39.95</t>
   </si>
   <si>
-    <t>CCC/89/105</t>
+    <t>PMT/CCC/003017/166</t>
   </si>
   <si>
     <t>0.39.96</t>
   </si>
   <si>
-    <t>CCC/89/106</t>
+    <t>PMT/CCC/003017/167</t>
   </si>
   <si>
     <t>0.39.97</t>
   </si>
   <si>
-    <t>CCC/89/107</t>
+    <t>PMT/CCC/003017/168</t>
   </si>
   <si>
     <t>0.39.98</t>
   </si>
   <si>
-    <t>CCC/89/108</t>
+    <t>PMT/CCC/003017/169</t>
   </si>
   <si>
     <t>0.39.99</t>
   </si>
   <si>
-    <t>CCC/89/109</t>
+    <t>PMT/CCC/003017/170</t>
   </si>
   <si>
     <t>0.39.100</t>
   </si>
   <si>
-    <t>CCC/89/110</t>
+    <t>PMT/CCC/003017/171</t>
   </si>
   <si>
     <t>0.39.101</t>
   </si>
   <si>
-    <t>CCC/89/111</t>
+    <t>PMT/CCC/003017/172</t>
   </si>
   <si>
     <t>0.39.102</t>
   </si>
   <si>
-    <t>CCC/89/112</t>
+    <t>PMT/CCC/003017/173</t>
   </si>
   <si>
     <t>0.39.103</t>
   </si>
   <si>
-    <t>CCC/89/113</t>
+    <t>PMT/CCC/003017/174</t>
   </si>
   <si>
     <t>0.39.104</t>
   </si>
   <si>
-    <t>CCC/89/114</t>
+    <t>PMT/CCC/003017/175</t>
   </si>
   <si>
     <t>0.39.105</t>
   </si>
   <si>
-    <t>CCC/89/115</t>
+    <t>PMT/CCC/003017/176</t>
   </si>
   <si>
     <t>0.39.106</t>
   </si>
   <si>
-    <t>CCC/89/116</t>
+    <t>PMT/CCC/003017/177</t>
   </si>
   <si>
     <t>0.39.107</t>
   </si>
   <si>
-    <t>CCC/89/117</t>
+    <t>PMT/CCC/003017/178</t>
   </si>
   <si>
     <t>0.39.108</t>
   </si>
   <si>
-    <t>CCC/89/118</t>
+    <t>PMT/CCC/003017/179</t>
   </si>
   <si>
     <t>0.39.109</t>
   </si>
   <si>
-    <t>CCC/89/119</t>
+    <t>PMT/CCC/003017/180</t>
   </si>
   <si>
     <t>0.39.110</t>
   </si>
   <si>
-    <t>CCC/89/120</t>
+    <t>PMT/CCC/003017/181</t>
   </si>
   <si>
     <t>0.39.111</t>
   </si>
   <si>
-    <t>CCC/89/121</t>
+    <t>PMT/CCC/003017/182</t>
   </si>
   <si>
     <t>0.39.112</t>
   </si>
   <si>
-    <t>CCC/89/122</t>
+    <t>PMT/CCC/003017/183</t>
   </si>
   <si>
     <t>0.39.113</t>
   </si>
   <si>
-    <t>CCC/89/123</t>
+    <t>PMT/CCC/003017/184</t>
   </si>
   <si>
     <t>0.39.114</t>
   </si>
   <si>
-    <t>CCC/89/124</t>
+    <t>PMT/CCC/003017/185</t>
   </si>
   <si>
     <t>0.39.115</t>
   </si>
   <si>
-    <t>CCC/89/125</t>
+    <t>PMT/CCC/003017/186</t>
   </si>
   <si>
     <t>0.39.116</t>
   </si>
   <si>
-    <t>CCC/89/126</t>
+    <t>PMT/CCC/003017/187</t>
   </si>
   <si>
     <t>0.39.117</t>
   </si>
   <si>
-    <t>CCC/89/127</t>
+    <t>PMT/CCC/003017/188</t>
   </si>
   <si>
     <t>0.39.118</t>
   </si>
   <si>
-    <t>CCC/89/128</t>
+    <t>PMT/CCC/003017/189</t>
   </si>
   <si>
     <t>0.39.119</t>
   </si>
   <si>
-    <t>CCC/89/129</t>
+    <t>PMT/CCC/003017/190</t>
   </si>
   <si>
     <t>0.39.120</t>
   </si>
   <si>
-    <t>CCC/89/130</t>
+    <t>PMT/CCC/003017/191</t>
   </si>
   <si>
     <t>0.39.121</t>
   </si>
   <si>
-    <t>CCC/89/131</t>
+    <t>PMT/CCC/003017/192</t>
   </si>
   <si>
     <t>0.39.122</t>
   </si>
   <si>
-    <t>CCC/89/132</t>
+    <t>PMT/CCC/003017/193</t>
   </si>
   <si>
     <t>0.39.123</t>
   </si>
   <si>
-    <t>CCC/89/133</t>
+    <t>PMT/CCC/003017/194</t>
   </si>
   <si>
     <t>0.39.124</t>
   </si>
   <si>
-    <t>CCC/89/134</t>
+    <t>PMT/CCC/003017/195</t>
   </si>
   <si>
     <t>0.39.125</t>
   </si>
   <si>
-    <t>CCC/89/135</t>
+    <t>PMT/CCC/003017/196</t>
   </si>
   <si>
     <t>0.39.126</t>
   </si>
   <si>
-    <t>CCC/89/136</t>
+    <t>PMT/CCC/003017/197</t>
   </si>
   <si>
     <t>0.39.127</t>
   </si>
   <si>
-    <t>CCC/89/137</t>
+    <t>PMT/CCC/003017/198</t>
   </si>
   <si>
     <t>0.39.128</t>
   </si>
   <si>
-    <t>CCC/89/138</t>
+    <t>PMT/CCC/003017/199</t>
   </si>
   <si>
     <t>0.39.129</t>
   </si>
   <si>
-    <t>CCC/89/139</t>
+    <t>PMT/CCC/003017/200</t>
   </si>
   <si>
     <t>0.39.130</t>
   </si>
   <si>
-    <t>CCC/89/140</t>
+    <t>PMT/CCC/003017/201</t>
   </si>
   <si>
     <t>0.39.131</t>
   </si>
   <si>
-    <t>CCC/89/141</t>
+    <t>PMT/CCC/003017/202</t>
   </si>
   <si>
     <t>0.39.132</t>
   </si>
   <si>
-    <t>CCC/89/142</t>
+    <t>PMT/CCC/003017/203</t>
   </si>
   <si>
     <t>0.39.133</t>
   </si>
   <si>
-    <t>CCC/89/143</t>
+    <t>PMT/CCC/003017/204</t>
   </si>
   <si>
     <t>0.39.134</t>
   </si>
   <si>
-    <t>CCC/89/144</t>
+    <t>PMT/CCC/003017/205</t>
   </si>
   <si>
     <t>0.39.135</t>
   </si>
   <si>
-    <t>CCC/89/145</t>
+    <t>PMT/CCC/003017/206</t>
   </si>
   <si>
     <t>0.39.136</t>
   </si>
   <si>
-    <t>CCC/89/146</t>
+    <t>PMT/CCC/003017/207</t>
   </si>
   <si>
     <t>0.39.137</t>
   </si>
   <si>
-    <t>CCC/89/147</t>
+    <t>PMT/CCC/003017/208</t>
   </si>
   <si>
     <t>0.39.138</t>
   </si>
   <si>
-    <t>CCC/89/148</t>
+    <t>PMT/CCC/003017/209</t>
   </si>
   <si>
     <t>0.39.139</t>
   </si>
   <si>
-    <t>CCC/89/149</t>
+    <t>PMT/CCC/003017/210</t>
   </si>
   <si>
     <t>0.39.140</t>
   </si>
   <si>
-    <t>CCC/89/150</t>
+    <t>PMT/CCC/003017/211</t>
   </si>
   <si>
     <t>0.39.141</t>
   </si>
   <si>
-    <t>CCC/89/151</t>
+    <t>PMT/CCC/003017/212</t>
   </si>
   <si>
     <t>0.39.142</t>
   </si>
   <si>
-    <t>CCC/89/152</t>
+    <t>PMT/CCC/003017/213</t>
   </si>
   <si>
     <t>0.39.143</t>
   </si>
   <si>
-    <t>CCC/89/153</t>
+    <t>PMT/CCC/003017/214</t>
   </si>
   <si>
     <t>0.39.144</t>
   </si>
   <si>
-    <t>CCC/89/154</t>
+    <t>PMT/CCC/003017/215</t>
   </si>
   <si>
     <t>0.39.145</t>
   </si>
   <si>
-    <t>CCC/89/155</t>
+    <t>PMT/CCC/003017/216</t>
   </si>
   <si>
     <t>0.39.146</t>
   </si>
   <si>
-    <t>CCC/89/156</t>
+    <t>PMT/CCC/003017/217</t>
   </si>
   <si>
     <t>0.39.147</t>
   </si>
   <si>
-    <t>CCC/89/157</t>
+    <t>PMT/CCC/003017/218</t>
   </si>
   <si>
     <t>0.39.148</t>
   </si>
   <si>
-    <t>CCC/89/158</t>
+    <t>PMT/CCC/003017/219</t>
   </si>
   <si>
     <t>0.39.149</t>
   </si>
   <si>
-    <t>CCC/89/159</t>
+    <t>PMT/CCC/003017/220</t>
   </si>
   <si>
     <t>0.39.150</t>
   </si>
   <si>
-    <t>CCC/89/160</t>
+    <t>PMT/CCC/003017/221</t>
   </si>
   <si>
     <t>0.39.151</t>
   </si>
   <si>
-    <t>CCC/89/161</t>
+    <t>PMT/CCC/003017/222</t>
   </si>
   <si>
     <t>0.39.152</t>
   </si>
   <si>
-    <t>CCC/89/162</t>
+    <t>PMT/CCC/003017/223</t>
   </si>
   <si>
     <t>0.39.153</t>
   </si>
   <si>
-    <t>CCC/89/163</t>
+    <t>PMT/CCC/003017/224</t>
   </si>
   <si>
     <t>0.39.154</t>
   </si>
   <si>
-    <t>CCC/89/164</t>
+    <t>PMT/CCC/003017/225</t>
   </si>
   <si>
     <t>0.39.155</t>
   </si>
   <si>
-    <t>CCC/89/165</t>
+    <t>PMT/CCC/003017/226</t>
   </si>
   <si>
     <t>0.39.156</t>
   </si>
   <si>
-    <t>CCC/89/166</t>
+    <t>PMT/CCC/003017/227</t>
   </si>
   <si>
     <t>0.39.157</t>
   </si>
   <si>
-    <t>CCC/89/167</t>
+    <t>PMT/CCC/003017/228</t>
   </si>
   <si>
     <t>0.39.158</t>
   </si>
   <si>
-    <t>CCC/89/168</t>
+    <t>PMT/CCC/003017/229</t>
   </si>
   <si>
     <t>0.39.159</t>
   </si>
   <si>
-    <t>CCC/89/169</t>
+    <t>PMT/CCC/003017/230</t>
   </si>
   <si>
     <t>0.39.160</t>
   </si>
   <si>
-    <t>CCC/89/170</t>
+    <t>PMT/CCC/003017/231</t>
   </si>
   <si>
     <t>0.39.161</t>
   </si>
   <si>
-    <t>CCC/89/171</t>
+    <t>PMT/CCC/003017/232</t>
   </si>
   <si>
     <t>0.39.162</t>
   </si>
   <si>
-    <t>CCC/89/172</t>
+    <t>PMT/CCC/003017/233</t>
   </si>
   <si>
     <t>0.39.163</t>
   </si>
   <si>
-    <t>CCC/89/173</t>
+    <t>PMT/CCC/003017/234</t>
   </si>
   <si>
     <t>0.39.164</t>
   </si>
   <si>
-    <t>CCC/89/174</t>
+    <t>PMT/CCC/003017/235</t>
   </si>
   <si>
     <t>0.39.165</t>
   </si>
   <si>
-    <t>CCC/89/175</t>
+    <t>PMT/CCC/003017/236</t>
   </si>
   <si>
     <t>0.39.166</t>
   </si>
   <si>
-    <t>CCC/89/176</t>
+    <t>PMT/CCC/003017/237</t>
   </si>
   <si>
     <t>0.39.167</t>
   </si>
   <si>
-    <t>CCC/89/177</t>
+    <t>PMT/CCC/003017/238</t>
   </si>
   <si>
     <t>0.39.168</t>
   </si>
   <si>
-    <t>CCC/89/178</t>
+    <t>PMT/CCC/003017/239</t>
   </si>
   <si>
     <t>0.39.169</t>
   </si>
   <si>
-    <t>CCC/89/179</t>
+    <t>PMT/CCC/003017/240</t>
   </si>
   <si>
     <t>0.39.170</t>
   </si>
   <si>
-    <t>CCC/89/180</t>
+    <t>PMT/CCC/003017/241</t>
   </si>
   <si>
     <t>0.39.171</t>
   </si>
   <si>
-    <t>CCC/89/181</t>
+    <t>PMT/CCC/003017/242</t>
   </si>
   <si>
     <t>0.39.172</t>
   </si>
   <si>
-    <t>CCC/89/182</t>
+    <t>PMT/CCC/003017/243</t>
   </si>
   <si>
     <t>0.39.173</t>
   </si>
   <si>
-    <t>CCC/89/183</t>
+    <t>PMT/CCC/003017/244</t>
   </si>
   <si>
     <t>0.39.174</t>
   </si>
   <si>
-    <t>CCC/89/184</t>
+    <t>PMT/CCC/003017/245</t>
   </si>
   <si>
     <t>0.39.175</t>
   </si>
   <si>
-    <t>CCC/89/185</t>
+    <t>PMT/CCC/003017/246</t>
   </si>
   <si>
     <t>0.39.176</t>
   </si>
   <si>
-    <t>CCC/89/186</t>
+    <t>PMT/CCC/003017/247</t>
   </si>
   <si>
     <t>0.39.177</t>
   </si>
   <si>
-    <t>CCC/89/187</t>
+    <t>PMT/CCC/003017/248</t>
   </si>
   <si>
     <t>0.39.178</t>
   </si>
   <si>
-    <t>CCC/89/188</t>
+    <t>PMT/CCC/003017/249</t>
   </si>
   <si>
     <t>0.39.179</t>
   </si>
   <si>
-    <t>CCC/89/189</t>
+    <t>PMT/CCC/003017/250</t>
   </si>
   <si>
     <t>0.39.180</t>
   </si>
   <si>
-    <t>CCC/89/190</t>
+    <t>PMT/CCC/003017/251</t>
   </si>
   <si>
     <t>0.39.181</t>
   </si>
   <si>
-    <t>CCC/89/191</t>
+    <t>PMT/CCC/003017/252</t>
   </si>
   <si>
     <t>0.39.182</t>
   </si>
   <si>
-    <t>CCC/89/192</t>
+    <t>PMT/CCC/003017/253</t>
   </si>
   <si>
     <t>0.39.183</t>
   </si>
   <si>
-    <t>CCC/89/193</t>
+    <t>PMT/CCC/003017/254</t>
   </si>
   <si>
     <t>0.39.184</t>
   </si>
   <si>
-    <t>CCC/89/194</t>
+    <t>PMT/CCC/003017/255</t>
   </si>
   <si>
     <t>0.39.185</t>
   </si>
   <si>
-    <t>CCC/89/195</t>
+    <t>PMT/CCC/003017/256</t>
   </si>
   <si>
     <t>0.39.186</t>
   </si>
   <si>
-    <t>CCC/89/196</t>
+    <t>PMT/CCC/003017/257</t>
   </si>
   <si>
     <t>0.39.187</t>
   </si>
   <si>
-    <t>CCC/89/197</t>
+    <t>PMT/CCC/003017/258</t>
   </si>
   <si>
     <t>0.39.188</t>
   </si>
   <si>
-    <t>CCC/89/198</t>
+    <t>PMT/CCC/003017/259</t>
   </si>
   <si>
     <t>0.39.189</t>
   </si>
   <si>
-    <t>CCC/89/199</t>
+    <t>PMT/CCC/003017/260</t>
   </si>
   <si>
     <t>0.39.190</t>
   </si>
   <si>
-    <t>CCC/89/200</t>
+    <t>PMT/CCC/003017/261</t>
   </si>
   <si>
     <t>0.39.191</t>
   </si>
   <si>
-    <t>CCC/89/201</t>
+    <t>PMT/CCC/003017/262</t>
   </si>
   <si>
     <t>0.39.192</t>
   </si>
   <si>
-    <t>CCC/89/202</t>
+    <t>PMT/CCC/003017/263</t>
   </si>
   <si>
     <t>0.39.193</t>
   </si>
   <si>
-    <t>CCC/89/203</t>
+    <t>PMT/CCC/003017/264</t>
   </si>
   <si>
     <t>0.39.194</t>
   </si>
   <si>
-    <t>CCC/89/204</t>
+    <t>PMT/CCC/003017/265</t>
   </si>
   <si>
     <t>0.39.195</t>
   </si>
   <si>
-    <t>CCC/89/205</t>
+    <t>PMT/CCC/003017/266</t>
   </si>
   <si>
     <t>0.39.196</t>
   </si>
   <si>
-    <t>CCC/89/206</t>
+    <t>PMT/CCC/003017/267</t>
   </si>
   <si>
     <t>0.39.197</t>
   </si>
   <si>
-    <t>CCC/89/207</t>
+    <t>PMT/CCC/003017/268</t>
   </si>
   <si>
     <t>0.39.198</t>
   </si>
   <si>
-    <t>CCC/89/208</t>
+    <t>PMT/CCC/003017/269</t>
   </si>
   <si>
     <t>0.39.199</t>
   </si>
   <si>
-    <t>CCC/89/209</t>
+    <t>PMT/CCC/003017/270</t>
   </si>
   <si>
     <t>0.39.200</t>
   </si>
   <si>
-    <t>CCC/89/210</t>
+    <t>PMT/CCC/003017/271</t>
   </si>
   <si>
     <t>0.39.201</t>
   </si>
   <si>
-    <t>CCC/89/211</t>
+    <t>PMT/CCC/003017/272</t>
   </si>
   <si>
     <t>0.39.202</t>
   </si>
   <si>
-    <t>CCC/89/212</t>
+    <t>PMT/CCC/003017/273</t>
   </si>
   <si>
     <t>0.39.203</t>
   </si>
   <si>
-    <t>CCC/89/213</t>
+    <t>PMT/CCC/003017/274</t>
   </si>
   <si>
     <t>0.39.204</t>
   </si>
   <si>
-    <t>CCC/89/214</t>
+    <t>PMT/CCC/003017/275</t>
   </si>
   <si>
     <t>0.39.205</t>
   </si>
   <si>
-    <t>CCC/89/215</t>
+    <t>PMT/CCC/003017/276</t>
   </si>
   <si>
     <t>0.39.206</t>
   </si>
   <si>
-    <t>CCC/89/216</t>
+    <t>PMT/CCC/003017/277</t>
   </si>
   <si>
     <t>0.39.207</t>
   </si>
   <si>
-    <t>CCC/89/217</t>
+    <t>PMT/CCC/003017/278</t>
   </si>
   <si>
     <t>0.39.208</t>
   </si>
   <si>
-    <t>CCC/89/218</t>
+    <t>PMT/CCC/003017/279</t>
   </si>
   <si>
     <t>0.39.209</t>
   </si>
   <si>
-    <t>CCC/89/219</t>
+    <t>PMT/CCC/003017/280</t>
   </si>
   <si>
     <t>0.39.210</t>
   </si>
   <si>
-    <t>CCC/89/220</t>
+    <t>PMT/CCC/003017/281</t>
   </si>
   <si>
     <t>0.39.211</t>
   </si>
   <si>
-    <t>CCC/89/221</t>
+    <t>PMT/CCC/003017/282</t>
   </si>
   <si>
     <t>0.39.212</t>
   </si>
   <si>
-    <t>CCC/89/222</t>
+    <t>PMT/CCC/003017/283</t>
   </si>
   <si>
     <t>0.39.213</t>
   </si>
   <si>
-    <t>CCC/89/223</t>
+    <t>PMT/CCC/003017/284</t>
   </si>
   <si>
     <t>0.39.214</t>
   </si>
   <si>
-    <t>CCC/89/224</t>
+    <t>PMT/CCC/003017/285</t>
   </si>
   <si>
     <t>0.39.215</t>
   </si>
   <si>
-    <t>CCC/89/225</t>
+    <t>PMT/CCC/003017/286</t>
   </si>
   <si>
     <t>0.39.216</t>
   </si>
   <si>
-    <t>CCC/89/226</t>
+    <t>PMT/CCC/003017/287</t>
   </si>
   <si>
     <t>0.39.217</t>
   </si>
   <si>
-    <t>CCC/89/227</t>
+    <t>PMT/CCC/003017/288</t>
   </si>
   <si>
     <t>0.39.218</t>
   </si>
   <si>
-    <t>CCC/89/228</t>
+    <t>PMT/CCC/003017/289</t>
   </si>
   <si>
     <t>0.39.219</t>
   </si>
   <si>
-    <t>CCC/89/229</t>
+    <t>PMT/CCC/003017/290</t>
   </si>
   <si>
     <t>0.39.220</t>
   </si>
   <si>
-    <t>CCC/89/230</t>
+    <t>PMT/CCC/003017/291</t>
   </si>
   <si>
     <t>0.39.221</t>
   </si>
   <si>
-    <t>CCC/89/231</t>
+    <t>PMT/CCC/003017/292</t>
   </si>
   <si>
     <t>0.39.222</t>
   </si>
   <si>
-    <t>CCC/89/232</t>
+    <t>PMT/CCC/003017/293</t>
   </si>
   <si>
     <t>0.39.223</t>
   </si>
   <si>
-    <t>CCC/89/233</t>
+    <t>PMT/CCC/003017/294</t>
   </si>
   <si>
     <t>0.39.224</t>
   </si>
   <si>
-    <t>CCC/89/234</t>
+    <t>PMT/CCC/003017/295</t>
   </si>
   <si>
     <t>0.39.225</t>
   </si>
   <si>
-    <t>CCC/89/235</t>
+    <t>PMT/CCC/003017/296</t>
   </si>
   <si>
     <t>0.39.226</t>
   </si>
   <si>
-    <t>CCC/89/236</t>
+    <t>PMT/CCC/003017/297</t>
   </si>
   <si>
     <t>0.39.227</t>
   </si>
   <si>
-    <t>CCC/89/237</t>
+    <t>PMT/CCC/003017/298</t>
   </si>
   <si>
     <t>0.39.228</t>
   </si>
   <si>
-    <t>CCC/89/238</t>
+    <t>PMT/CCC/003017/299</t>
   </si>
   <si>
     <t>0.39.229</t>
   </si>
   <si>
-    <t>CCC/89/239</t>
+    <t>PMT/CCC/003017/300</t>
   </si>
   <si>
     <t>0.39.230</t>
   </si>
   <si>
-    <t>CCC/89/240</t>
+    <t>PMT/CCC/003017/301</t>
   </si>
   <si>
     <t>0.39.231</t>
   </si>
   <si>
-    <t>CCC/89/241</t>
+    <t>PMT/CCC/003017/302</t>
   </si>
   <si>
     <t>0.39.232</t>
   </si>
   <si>
-    <t>CCC/89/242</t>
+    <t>PMT/CCC/003017/303</t>
   </si>
   <si>
     <t>0.39.233</t>
   </si>
   <si>
-    <t>CCC/89/243</t>
+    <t>PMT/CCC/003017/304</t>
   </si>
   <si>
     <t>0.39.234</t>
   </si>
   <si>
-    <t>CCC/89/244</t>
+    <t>PMT/CCC/003017/305</t>
   </si>
   <si>
     <t>0.39.235</t>
   </si>
   <si>
-    <t>CCC/89/245</t>
+    <t>PMT/CCC/003017/306</t>
   </si>
   <si>
     <t>0.39.236</t>
   </si>
   <si>
-    <t>CCC/89/246</t>
+    <t>PMT/CCC/003017/307</t>
   </si>
   <si>
     <t>0.39.237</t>
   </si>
   <si>
-    <t>CCC/89/247</t>
+    <t>PMT/CCC/003017/308</t>
   </si>
   <si>
     <t>0.39.238</t>
   </si>
   <si>
-    <t>CCC/89/248</t>
+    <t>PMT/CCC/003017/309</t>
   </si>
   <si>
     <t>0.39.239</t>
   </si>
   <si>
-    <t>CCC/89/249</t>
+    <t>PMT/CCC/003017/310</t>
   </si>
   <si>
     <t>0.39.240</t>
   </si>
   <si>
-    <t>CCC/89/250</t>
+    <t>PMT/CCC/003017/311</t>
   </si>
   <si>
     <t>0.39.241</t>
   </si>
   <si>
-    <t>CCC/89/251</t>
+    <t>PMT/CCC/003017/312</t>
   </si>
   <si>
     <t>0.39.242</t>
   </si>
   <si>
-    <t>CCC/89/252</t>
+    <t>PMT/CCC/003017/313</t>
   </si>
   <si>
     <t>0.39.243</t>
   </si>
   <si>
-    <t>CCC/89/253</t>
+    <t>PMT/CCC/003017/314</t>
   </si>
   <si>
     <t>0.39.244</t>
   </si>
   <si>
-    <t>CCC/89/254</t>
+    <t>PMT/CCC/003017/315</t>
   </si>
   <si>
     <t>0.39.245</t>
   </si>
   <si>
-    <t>CCC/89/255</t>
+    <t>PMT/CCC/003017/316</t>
   </si>
   <si>
     <t>0.39.246</t>
   </si>
   <si>
-    <t>CCC/89/256</t>
+    <t>PMT/CCC/003017/317</t>
   </si>
   <si>
     <t>0.39.247</t>
   </si>
   <si>
-    <t>CCC/89/257</t>
+    <t>PMT/CCC/003017/318</t>
   </si>
   <si>
     <t>0.39.248</t>
   </si>
   <si>
-    <t>CCC/89/258</t>
+    <t>PMT/CCC/003017/319</t>
   </si>
   <si>
     <t>0.39.249</t>
   </si>
   <si>
-    <t>CCC/89/259</t>
+    <t>PMT/CCC/003017/320</t>
   </si>
   <si>
     <t>0.39.250</t>
   </si>
   <si>
-    <t>CCC/89/260</t>
+    <t>PMT/CCC/003017/321</t>
   </si>
   <si>
     <t>0.39.251</t>
   </si>
   <si>
-    <t>CCC/89/261</t>
+    <t>PMT/CCC/003017/322</t>
   </si>
   <si>
     <t>0.39.252</t>
   </si>
   <si>
-    <t>CCC/89/262</t>
+    <t>PMT/CCC/003017/323</t>
   </si>
   <si>
     <t>0.39.253</t>
   </si>
   <si>
-    <t>CCC/89/263</t>
+    <t>PMT/CCC/003017/324</t>
   </si>
   <si>
     <t>0.39.254</t>
   </si>
   <si>
-    <t>CCC/89/264</t>
+    <t>PMT/CCC/003017/325</t>
   </si>
   <si>
     <t>0.39.255</t>
   </si>
   <si>
-    <t>CCC/89/265</t>
+    <t>PMT/CCC/003017/326</t>
   </si>
   <si>
     <t>0.39.256</t>
   </si>
   <si>
-    <t>CCC/89/266</t>
+    <t>PMT/CCC/003017/327</t>
   </si>
   <si>
     <t>0.39.257</t>
   </si>
   <si>
-    <t>CCC/999/010</t>
+    <t>PMT/CCC/003017/328</t>
   </si>
   <si>
     <t>0.39.258</t>
   </si>
   <si>
-    <t>CCC/999/011</t>
+    <t>PMT/CCC/003017/329</t>
   </si>
   <si>
     <t>0.39.259</t>
   </si>
   <si>
-    <t>CCC/999/012</t>
+    <t>PMT/CCC/003017/330</t>
   </si>
   <si>
     <t>0.39.260</t>
   </si>
   <si>
-    <t>CCC/999/013</t>
+    <t>PMT/CCC/003017/331</t>
   </si>
   <si>
     <t>0.39.261</t>
   </si>
   <si>
-    <t>CCC/999/014</t>
+    <t>PMT/CCC/003017/332</t>
   </si>
   <si>
     <t>0.39.262</t>
   </si>
   <si>
-    <t>CCC/999/015</t>
+    <t>PMT/CCC/003017/333</t>
   </si>
   <si>
     <t>0.39.263</t>
   </si>
   <si>
-    <t>CCC/999/016</t>
+    <t>PMT/CCC/003017/334</t>
   </si>
   <si>
     <t>0.39.264</t>
   </si>
   <si>
-    <t>CCC/999/017</t>
+    <t>PMT/CCC/003017/335</t>
   </si>
   <si>
     <t>0.39.265</t>
   </si>
   <si>
-    <t>CCC/999/018</t>
+    <t>PMT/CCC/003017/336</t>
   </si>
   <si>
     <t>0.39.266</t>
   </si>
   <si>
-    <t>CCC/999/019</t>
+    <t>PMT/CCC/003017/337</t>
   </si>
   <si>
     <t>0.39.267</t>
   </si>
   <si>
-    <t>CCC/999/020</t>
+    <t>PMT/CCC/003017/338</t>
   </si>
   <si>
     <t>0.39.268</t>
   </si>
   <si>
-    <t>CCC/999/021</t>
+    <t>PMT/CCC/003017/339</t>
   </si>
   <si>
     <t>0.39.269</t>
   </si>
   <si>
-    <t>CCC/999/022</t>
+    <t>PMT/CCC/003017/340</t>
   </si>
   <si>
     <t>0.39.270</t>
   </si>
   <si>
-    <t>CCC/999/023</t>
+    <t>PMT/CCC/003017/341</t>
   </si>
   <si>
     <t>0.39.271</t>
   </si>
   <si>
-    <t>CCC/999/024</t>
+    <t>PMT/CCC/003017/342</t>
   </si>
   <si>
     <t>0.39.272</t>
   </si>
   <si>
-    <t>CCC/999/025</t>
+    <t>PMT/CCC/003017/343</t>
   </si>
   <si>
     <t>0.39.273</t>
   </si>
   <si>
-    <t>CCC/999/026</t>
+    <t>PMT/CCC/003017/344</t>
   </si>
   <si>
     <t>0.39.274</t>
   </si>
   <si>
-    <t>CCC/999/027</t>
+    <t>PMT/CCC/003017/345</t>
   </si>
   <si>
     <t>0.39.275</t>
   </si>
   <si>
-    <t>CCC/999/028</t>
+    <t>PMT/CCC/003017/346</t>
   </si>
   <si>
     <t>0.39.276</t>
   </si>
   <si>
-    <t>CCC/999/029</t>
+    <t>PMT/CCC/003017/347</t>
   </si>
   <si>
     <t>0.39.277</t>
   </si>
   <si>
-    <t>CCC/999/030</t>
+    <t>PMT/CCC/003017/348</t>
   </si>
   <si>
     <t>0.39.278</t>
   </si>
   <si>
-    <t>CCC/999/031</t>
+    <t>PMT/CCC/003017/349</t>
   </si>
   <si>
     <t>0.39.279</t>
   </si>
   <si>
-    <t>CCC/999/032</t>
+    <t>PMT/CCC/003017/350</t>
   </si>
   <si>
     <t>0.39.280</t>
   </si>
   <si>
-    <t>CCC/999/033</t>
+    <t>PMT/CCC/003017/351</t>
   </si>
   <si>
     <t>0.39.281</t>
   </si>
   <si>
-    <t>CCC/999/034</t>
+    <t>PMT/CCC/003017/352</t>
   </si>
   <si>
     <t>0.39.282</t>
   </si>
   <si>
-    <t>CCC/999/035</t>
+    <t>PMT/CCC/003017/353</t>
   </si>
   <si>
     <t>0.39.283</t>
   </si>
   <si>
-    <t>CCC/999/036</t>
+    <t>PMT/CCC/003017/354</t>
   </si>
   <si>
     <t>0.39.284</t>
   </si>
   <si>
-    <t>CCC/999/037</t>
+    <t>PMT/CCC/003017/355</t>
   </si>
   <si>
     <t>0.39.285</t>
   </si>
   <si>
-    <t>CCC/999/038</t>
+    <t>PMT/CCC/003017/356</t>
   </si>
   <si>
     <t>0.39.286</t>
   </si>
   <si>
-    <t>CCC/999/039</t>
+    <t>PMT/CCC/003017/357</t>
   </si>
   <si>
     <t>0.39.287</t>
   </si>
   <si>
-    <t>CCC/999/040</t>
+    <t>PMT/CCC/003017/358</t>
   </si>
   <si>
     <t>0.39.288</t>
   </si>
   <si>
-    <t>CCC/999/041</t>
+    <t>PMT/CCC/003017/359</t>
   </si>
   <si>
     <t>0.39.289</t>
   </si>
   <si>
-    <t>CCC/999/042</t>
+    <t>PMT/CCC/003017/360</t>
   </si>
   <si>
     <t>0.39.290</t>
   </si>
   <si>
-    <t>CCC/999/043</t>
+    <t>PMT/CCC/003017/361</t>
   </si>
   <si>
     <t>0.39.291</t>
   </si>
   <si>
-    <t>CCC/999/044</t>
+    <t>PMT/CCC/003017/362</t>
   </si>
   <si>
     <t>0.39.292</t>
   </si>
   <si>
-    <t>CCC/999/045</t>
+    <t>PMT/CCC/003017/363</t>
   </si>
   <si>
     <t>0.39.293</t>
   </si>
   <si>
-    <t>CCC/999/046</t>
+    <t>PMT/CCC/003017/364</t>
   </si>
   <si>
     <t>0.39.294</t>
   </si>
   <si>
-    <t>CCC/999/047</t>
+    <t>PMT/CCC/003017/365</t>
   </si>
   <si>
     <t>0.39.295</t>
   </si>
   <si>
-    <t>CCC/999/048</t>
+    <t>PMT/CCC/003017/366</t>
   </si>
   <si>
     <t>0.39.296</t>
   </si>
   <si>
-    <t>CCC/999/049</t>
+    <t>PMT/CCC/003017/367</t>
   </si>
   <si>
     <t>0.39.297</t>
   </si>
   <si>
-    <t>CCC/999/050</t>
+    <t>PMT/CCC/003017/368</t>
   </si>
   <si>
     <t>0.39.298</t>
   </si>
   <si>
-    <t>CCC/999/051</t>
+    <t>PMT/CCC/003017/369</t>
   </si>
   <si>
     <t>0.39.299</t>
   </si>
   <si>
-    <t>CCC/999/052</t>
+    <t>PMT/CCC/003017/370</t>
   </si>
   <si>
     <t>0.39.300</t>
   </si>
   <si>
-    <t>CCC/999/053</t>
+    <t>PMT/CCC/003017/371</t>
   </si>
   <si>
     <t>0.39.301</t>
   </si>
   <si>
-    <t>CCC/999/054</t>
+    <t>PMT/CCC/003017/372</t>
   </si>
   <si>
     <t>0.39.302</t>
   </si>
   <si>
-    <t>CCC/999/055</t>
+    <t>PMT/CCC/003017/373</t>
   </si>
   <si>
     <t>0.39.303</t>
   </si>
   <si>
-    <t>CCC/999/056</t>
+    <t>PMT/CCC/003017/374</t>
   </si>
   <si>
     <t>0.39.304</t>
   </si>
   <si>
-    <t>CCC/999/057</t>
+    <t>PMT/CCC/003017/375</t>
   </si>
   <si>
     <t>0.39.305</t>
   </si>
   <si>
-    <t>CCC/999/058</t>
+    <t>PMT/CCC/003017/376</t>
   </si>
   <si>
     <t>0.39.306</t>
   </si>
   <si>
-    <t>CCC/999/059</t>
+    <t>PMT/CCC/003017/377</t>
   </si>
   <si>
     <t>0.39.307</t>
   </si>
   <si>
-    <t>CCC/999/060</t>
+    <t>PMT/CCC/003017/378</t>
   </si>
   <si>
     <t>0.39.308</t>
   </si>
   <si>
-    <t>CCC/999/061</t>
+    <t>PMT/CCC/003017/379</t>
   </si>
   <si>
     <t>0.39.309</t>
   </si>
   <si>
-    <t>CCC/999/062</t>
+    <t>PMT/CCC/003017/380</t>
   </si>
   <si>
     <t>0.39.310</t>
   </si>
   <si>
-    <t>CCC/999/063</t>
+    <t>PMT/CCC/003017/381</t>
   </si>
   <si>
     <t>0.39.311</t>
   </si>
   <si>
-    <t>CCC/999/064</t>
+    <t>PMT/CCC/003017/382</t>
   </si>
   <si>
     <t>0.39.312</t>
   </si>
   <si>
-    <t>CCC/999/065</t>
+    <t>PMT/CCC/003017/383</t>
   </si>
   <si>
     <t>0.39.313</t>
   </si>
   <si>
-    <t>CCC/999/066</t>
+    <t>PMT/CCC/003017/384</t>
   </si>
   <si>
     <t>0.39.314</t>
   </si>
   <si>
-    <t>CCC/999/067</t>
+    <t>PMT/CCC/003017/385</t>
   </si>
   <si>
     <t>0.39.315</t>
   </si>
   <si>
-    <t>CCC/999/068</t>
+    <t>PMT/CCC/003017/386</t>
   </si>
   <si>
     <t>0.39.316</t>
   </si>
   <si>
-    <t>CCC/999/069</t>
+    <t>PMT/CCC/003017/387</t>
   </si>
   <si>
     <t>0.39.317</t>
   </si>
   <si>
-    <t>CCC/999/070</t>
+    <t>PMT/CCC/003017/388</t>
   </si>
   <si>
     <t>0.39.318</t>
   </si>
   <si>
-    <t>CCC/999/071</t>
+    <t>PMT/CCC/003017/389</t>
   </si>
   <si>
     <t>0.39.319</t>
   </si>
   <si>
-    <t>CCC/999/072</t>
+    <t>PMT/CCC/003017/390</t>
   </si>
   <si>
     <t>0.39.320</t>
   </si>
   <si>
-    <t>CCC/999/073</t>
+    <t>PMT/CCC/003017/391</t>
   </si>
   <si>
     <t>0.39.321</t>
   </si>
   <si>
-    <t>CCC/999/074</t>
+    <t>PMT/CCC/003017/392</t>
   </si>
   <si>
     <t>0.39.322</t>
   </si>
   <si>
-    <t>CCC/999/075</t>
+    <t>PMT/CCC/003017/393</t>
   </si>
   <si>
     <t>0.39.323</t>
   </si>
   <si>
-    <t>CCC/999/076</t>
+    <t>PMT/CCC/003017/394</t>
   </si>
   <si>
     <t>0.39.324</t>
   </si>
   <si>
-    <t>CCC/999/077</t>
+    <t>PMT/CCC/003017/395</t>
   </si>
   <si>
     <t>0.39.325</t>
   </si>
   <si>
-    <t>CCC/999/078</t>
+    <t>PMT/CCC/003017/396</t>
   </si>
   <si>
     <t>0.39.326</t>
   </si>
   <si>
-    <t>CCC/999/079</t>
+    <t>PMT/CCC/003017/397</t>
   </si>
   <si>
     <t>0.39.327</t>
   </si>
   <si>
-    <t>CCC/999/080</t>
+    <t>PMT/CCC/003017/398</t>
   </si>
   <si>
     <t>0.39.328</t>
   </si>
   <si>
-    <t>CCC/999/081</t>
+    <t>PMT/CCC/003017/399</t>
   </si>
   <si>
     <t>0.39.329</t>
   </si>
   <si>
-    <t>CCC/999/082</t>
+    <t>PMT/CCC/003017/400</t>
   </si>
   <si>
     <t>0.39.330</t>
   </si>
   <si>
-    <t>CCC/999/083</t>
+    <t>PMT/CCC/003017/401</t>
   </si>
   <si>
     <t>0.39.331</t>
   </si>
   <si>
-    <t>CCC/999/084</t>
+    <t>PMT/CCC/003017/402</t>
   </si>
   <si>
     <t>0.39.332</t>
   </si>
   <si>
-    <t>CCC/999/085</t>
+    <t>PMT/CCC/003017/403</t>
   </si>
   <si>
     <t>0.39.333</t>
   </si>
   <si>
-    <t>CCC/999/086</t>
+    <t>PMT/CCC/003017/404</t>
   </si>
   <si>
     <t>0.39.334</t>
   </si>
   <si>
-    <t>CCC/999/087</t>
+    <t>PMT/CCC/003017/405</t>
   </si>
   <si>
     <t>0.39.335</t>
   </si>
   <si>
-    <t>CCC/999/088</t>
+    <t>PMT/CCC/003017/406</t>
   </si>
   <si>
     <t>0.39.336</t>
   </si>
   <si>
-    <t>CCC/999/089</t>
+    <t>PMT/CCC/003017/407</t>
   </si>
   <si>
     <t>0.39.337</t>
   </si>
   <si>
-    <t>CCC/999/090</t>
+    <t>PMT/CCC/003017/408</t>
   </si>
   <si>
     <t>0.39.338</t>
   </si>
   <si>
-    <t>CCC/999/091</t>
+    <t>PMT/CCC/003017/409</t>
   </si>
   <si>
     <t>0.39.339</t>
   </si>
   <si>
-    <t>CCC/999/092</t>
+    <t>PMT/CCC/003017/410</t>
   </si>
   <si>
     <t>0.39.340</t>
   </si>
   <si>
-    <t>CCC/999/093</t>
+    <t>PMT/CCC/003017/411</t>
   </si>
   <si>
     <t>0.39.341</t>
   </si>
   <si>
-    <t>CCC/999/094</t>
+    <t>PMT/CCC/003017/412</t>
   </si>
   <si>
     <t>0.39.342</t>
   </si>
   <si>
-    <t>CCC/999/095</t>
+    <t>PMT/CCC/003017/413</t>
   </si>
   <si>
     <t>0.39.343</t>
   </si>
   <si>
-    <t>CCC/999/096</t>
+    <t>PMT/CCC/003017/414</t>
   </si>
   <si>
     <t>0.39.344</t>
   </si>
   <si>
-    <t>CCC/999/097</t>
+    <t>PMT/CCC/003017/415</t>
   </si>
   <si>
     <t>0.39.345</t>
   </si>
   <si>
-    <t>CCC/999/098</t>
+    <t>PMT/CCC/003017/416</t>
   </si>
   <si>
     <t>0.39.346</t>
   </si>
   <si>
-    <t>CCC/999/099</t>
+    <t>PMT/CCC/003017/417</t>
   </si>
   <si>
     <t>0.39.347</t>
   </si>
   <si>
-    <t>CCC/999/100</t>
+    <t>PMT/CCC/003017/418</t>
   </si>
   <si>
     <t>0.39.348</t>
   </si>
   <si>
-    <t>CCC/999/101</t>
+    <t>PMT/CCC/003017/419</t>
   </si>
   <si>
     <t>0.39.349</t>
   </si>
   <si>
-    <t>CCC/999/102</t>
+    <t>PMT/CCC/003017/420</t>
   </si>
   <si>
     <t>0.39.350</t>
   </si>
   <si>
-    <t>CCC/999/103</t>
+    <t>PMT/CCC/003017/421</t>
   </si>
   <si>
     <t>0.39.351</t>
   </si>
   <si>
-    <t>CCC/999/104</t>
+    <t>PMT/CCC/003017/422</t>
   </si>
   <si>
     <t>0.39.352</t>
   </si>
   <si>
-    <t>CCC/999/105</t>
+    <t>PMT/CCC/003017/423</t>
   </si>
   <si>
     <t>0.39.353</t>
   </si>
   <si>
-    <t>CCC/999/106</t>
+    <t>PMT/CCC/003017/424</t>
   </si>
   <si>
     <t>0.39.354</t>
   </si>
   <si>
-    <t>CCC/999/107</t>
+    <t>PMT/CCC/003017/425</t>
   </si>
   <si>
     <t>0.39.355</t>
   </si>
   <si>
-    <t>CCC/999/108</t>
+    <t>PMT/CCC/003017/426</t>
   </si>
   <si>
     <t>0.39.356</t>
   </si>
   <si>
-    <t>CCC/999/109</t>
+    <t>PMT/CCC/003017/427</t>
   </si>
   <si>
     <t>0.39.357</t>
   </si>
   <si>
-    <t>CCC/999/110</t>
+    <t>PMT/CCC/003017/428</t>
   </si>
   <si>
     <t>0.39.358</t>
   </si>
   <si>
-    <t>CCC/999/111</t>
+    <t>PMT/CCC/003017/429</t>
   </si>
   <si>
     <t>0.39.359</t>
   </si>
   <si>
-    <t>CCC/999/112</t>
+    <t>PMT/CCC/003017/430</t>
   </si>
   <si>
     <t>0.39.360</t>
   </si>
   <si>
-    <t>CCC/999/113</t>
+    <t>PMT/CCC/003017/431</t>
   </si>
   <si>
     <t>0.39.361</t>
   </si>
   <si>
-    <t>CCC/999/114</t>
+    <t>PMT/CCC/003017/432</t>
   </si>
   <si>
     <t>0.39.362</t>
   </si>
   <si>
-    <t>CCC/999/115</t>
+    <t>PMT/CCC/003017/433</t>
   </si>
   <si>
     <t>0.39.363</t>
   </si>
   <si>
-    <t>CCC/999/116</t>
+    <t>PMT/CCC/003017/434</t>
   </si>
   <si>
     <t>0.39.364</t>
   </si>
   <si>
-    <t>CCC/999/117</t>
+    <t>PMT/CCC/003017/435</t>
   </si>
   <si>
     <t>0.39.365</t>
   </si>
   <si>
-    <t>CCC/999/118</t>
+    <t>PMT/CCC/003017/436</t>
   </si>
   <si>
     <t>0.39.366</t>
   </si>
   <si>
-    <t>CCC/999/119</t>
+    <t>PMT/CCC/003017/437</t>
   </si>
   <si>
     <t>0.39.367</t>
   </si>
   <si>
-    <t>CCC/999/120</t>
+    <t>PMT/CCC/003017/438</t>
   </si>
   <si>
     <t>0.39.368</t>
   </si>
   <si>
-    <t>CCC/999/121</t>
+    <t>PMT/CCC/003017/439</t>
   </si>
   <si>
     <t>0.39.369</t>
   </si>
   <si>
-    <t>CCC/999/122</t>
+    <t>PMT/CCC/003017/440</t>
   </si>
   <si>
     <t>0.39.370</t>
   </si>
   <si>
-    <t>CCC/999/123</t>
+    <t>PMT/CCC/003017/441</t>
   </si>
   <si>
     <t>0.39.371</t>
   </si>
   <si>
-    <t>CCC/999/124</t>
+    <t>PMT/CCC/003017/442</t>
   </si>
   <si>
     <t>0.39.372</t>
   </si>
   <si>
-    <t>CCC/999/125</t>
+    <t>PMT/CCC/003017/443</t>
   </si>
   <si>
     <t>0.39.373</t>
   </si>
   <si>
-    <t>CCC/999/126</t>
+    <t>PMT/CCC/003017/444</t>
   </si>
   <si>
     <t>0.39.374</t>
   </si>
   <si>
-    <t>CCC/999/127</t>
+    <t>PMT/CCC/003017/445</t>
   </si>
   <si>
     <t>0.39.375</t>
   </si>
   <si>
-    <t>CCC/999/128</t>
+    <t>PMT/CCC/003017/446</t>
   </si>
   <si>
     <t>0.39.376</t>
   </si>
   <si>
-    <t>CCC/999/129</t>
+    <t>PMT/CCC/003017/447</t>
   </si>
   <si>
     <t>0.39.377</t>
   </si>
   <si>
-    <t>CCC/999/130</t>
+    <t>PMT/CCC/003017/448</t>
   </si>
   <si>
     <t>0.39.378</t>
   </si>
   <si>
-    <t>CCC/999/131</t>
+    <t>PMT/CCC/003017/449</t>
   </si>
   <si>
     <t>0.39.379</t>
   </si>
   <si>
-    <t>CCC/999/132</t>
+    <t>PMT/CCC/003017/450</t>
   </si>
   <si>
     <t>0.39.380</t>
   </si>
   <si>
-    <t>CCC/999/133</t>
+    <t>PMT/CCC/003017/451</t>
   </si>
   <si>
     <t>0.39.381</t>
   </si>
   <si>
-    <t>CCC/999/134</t>
+    <t>PMT/CCC/003017/452</t>
   </si>
   <si>
     <t>0.39.382</t>
   </si>
   <si>
-    <t>CCC/999/135</t>
+    <t>PMT/CCC/003017/453</t>
   </si>
   <si>
     <t>0.39.383</t>
   </si>
   <si>
-    <t>CCC/999/136</t>
+    <t>PMT/CCC/003017/454</t>
   </si>
   <si>
     <t>0.39.384</t>
   </si>
   <si>
-    <t>CCC/999/137</t>
+    <t>PMT/CCC/003017/455</t>
   </si>
   <si>
     <t>0.39.385</t>
   </si>
   <si>
-    <t>CCC/999/138</t>
+    <t>PMT/CCC/003017/456</t>
   </si>
   <si>
     <t>0.39.386</t>
   </si>
   <si>
-    <t>CCC/999/139</t>
+    <t>PMT/CCC/003017/457</t>
   </si>
   <si>
     <t>0.39.387</t>
   </si>
   <si>
-    <t>CCC/999/140</t>
+    <t>PMT/CCC/003017/458</t>
   </si>
   <si>
     <t>0.39.388</t>
   </si>
   <si>
-    <t>CCC/999/141</t>
+    <t>PMT/CCC/003017/459</t>
   </si>
   <si>
     <t>0.39.389</t>
   </si>
   <si>
-    <t>CCC/999/142</t>
+    <t>PMT/CCC/003017/460</t>
   </si>
   <si>
     <t>0.39.390</t>
   </si>
   <si>
-    <t>CCC/999/143</t>
+    <t>PMT/CCC/003017/461</t>
   </si>
   <si>
     <t>0.39.391</t>
   </si>
   <si>
-    <t>CCC/999/144</t>
+    <t>PMT/CCC/003017/462</t>
   </si>
   <si>
     <t>0.39.392</t>
   </si>
   <si>
-    <t>CCC/999/145</t>
+    <t>PMT/CCC/003017/463</t>
   </si>
   <si>
     <t>0.39.393</t>
   </si>
   <si>
-    <t>CCC/999/146</t>
+    <t>PMT/CCC/003017/464</t>
   </si>
   <si>
     <t>0.39.394</t>
   </si>
   <si>
-    <t>CCC/999/147</t>
+    <t>PMT/CCC/003017/465</t>
   </si>
   <si>
     <t>0.39.395</t>
   </si>
   <si>
-    <t>CCC/999/148</t>
+    <t>PMT/CCC/003017/466</t>
   </si>
   <si>
     <t>0.39.396</t>
   </si>
   <si>
-    <t>CCC/999/149</t>
+    <t>PMT/CCC/003017/467</t>
   </si>
   <si>
     <t>0.39.397</t>
   </si>
   <si>
-    <t>CCC/999/150</t>
+    <t>PMT/CCC/003017/468</t>
   </si>
   <si>
     <t>0.39.398</t>
   </si>
   <si>
-    <t>CCC/999/151</t>
+    <t>PMT/CCC/003017/469</t>
   </si>
   <si>
     <t>0.39.399</t>
   </si>
   <si>
-    <t>CCC/999/152</t>
+    <t>PMT/CCC/003017/470</t>
   </si>
   <si>
     <t>0.39.400</t>
   </si>
   <si>
-    <t>CCC/999/153</t>
+    <t>PMT/CCC/003017/471</t>
   </si>
   <si>
     <t>0.39.401</t>
   </si>
   <si>
-    <t>CCC/999/154</t>
+    <t>PMT/CCC/003017/472</t>
   </si>
   <si>
     <t>0.39.402</t>
   </si>
   <si>
-    <t>CCC/999/155</t>
+    <t>PMT/CCC/003017/473</t>
   </si>
   <si>
     <t>0.39.403</t>
   </si>
   <si>
-    <t>CCC/999/156</t>
+    <t>PMT/CCC/003017/474</t>
   </si>
   <si>
     <t>0.39.404</t>
   </si>
   <si>
-    <t>CCC/999/157</t>
+    <t>PMT/CCC/003017/475</t>
   </si>
   <si>
     <t>0.39.405</t>
   </si>
   <si>
-    <t>CCC/999/158</t>
+    <t>PMT/CCC/003017/476</t>
   </si>
   <si>
     <t>0.39.406</t>
   </si>
   <si>
-    <t>CCC/999/159</t>
+    <t>PMT/CCC/003017/477</t>
   </si>
   <si>
     <t>0.39.407</t>
   </si>
   <si>
-    <t>CCC/999/160</t>
+    <t>PMT/CCC/003017/478</t>
   </si>
   <si>
     <t>0.39.408</t>
   </si>
   <si>
-    <t>CCC/999/161</t>
+    <t>PMT/CCC/003017/479</t>
   </si>
   <si>
     <t>0.39.409</t>
   </si>
   <si>
-    <t>CCC/999/162</t>
+    <t>PMT/CCC/003017/480</t>
   </si>
   <si>
     <t>0.39.410</t>
   </si>
   <si>
-    <t>CCC/999/163</t>
+    <t>PMT/CCC/003017/481</t>
   </si>
   <si>
     <t>0.39.411</t>
   </si>
   <si>
-    <t>CCC/999/164</t>
+    <t>PMT/CCC/003017/482</t>
   </si>
   <si>
     <t>0.39.412</t>
   </si>
   <si>
-    <t>CCC/999/165</t>
+    <t>PMT/CCC/003017/483</t>
   </si>
   <si>
     <t>0.39.413</t>
   </si>
   <si>
-    <t>CCC/999/166</t>
+    <t>PMT/CCC/003017/484</t>
   </si>
   <si>
     <t>0.39.414</t>
   </si>
   <si>
-    <t>CCC/999/167</t>
+    <t>PMT/CCC/003017/485</t>
   </si>
   <si>
     <t>0.39.415</t>
   </si>
   <si>
-    <t>CCC/999/168</t>
+    <t>PMT/CCC/003017/486</t>
   </si>
   <si>
     <t>0.39.416</t>
   </si>
   <si>
-    <t>CCC/999/169</t>
+    <t>PMT/CCC/003017/487</t>
   </si>
   <si>
     <t>0.39.417</t>
   </si>
   <si>
-    <t>CCC/999/170</t>
+    <t>PMT/CCC/003017/488</t>
   </si>
   <si>
     <t>0.39.418</t>
   </si>
   <si>
-    <t>CCC/999/171</t>
+    <t>PMT/CCC/003017/489</t>
   </si>
   <si>
     <t>0.39.419</t>
   </si>
   <si>
-    <t>CCC/999/172</t>
+    <t>PMT/CCC/003017/490</t>
   </si>
   <si>
     <t>0.39.420</t>
   </si>
   <si>
-    <t>CCC/999/173</t>
+    <t>PMT/CCC/003017/491</t>
   </si>
   <si>
     <t>0.39.421</t>
   </si>
   <si>
-    <t>CCC/999/174</t>
+    <t>PMT/CCC/003017/492</t>
   </si>
   <si>
     <t>0.39.422</t>
   </si>
   <si>
-    <t>CCC/999/175</t>
+    <t>PMT/CCC/003017/493</t>
   </si>
   <si>
     <t>0.39.423</t>
   </si>
   <si>
-    <t>CCC/999/176</t>
+    <t>PMT/CCC/003017/494</t>
   </si>
   <si>
     <t>0.39.424</t>
   </si>
   <si>
-    <t>CCC/999/177</t>
+    <t>PMT/CCC/003017/495</t>
   </si>
   <si>
     <t>0.39.425</t>
   </si>
   <si>
-    <t>CCC/999/178</t>
+    <t>PMT/CCC/003017/496</t>
   </si>
   <si>
     <t>0.39.426</t>
   </si>
   <si>
-    <t>CCC/999/179</t>
+    <t>PMT/CCC/003017/497</t>
   </si>
   <si>
     <t>0.39.427</t>
   </si>
   <si>
-    <t>CCC/999/180</t>
+    <t>PMT/CCC/003017/498</t>
   </si>
   <si>
     <t>0.39.428</t>
   </si>
   <si>
-    <t>CCC/999/181</t>
+    <t>PMT/CCC/003017/499</t>
   </si>
   <si>
     <t>0.39.429</t>
   </si>
   <si>
-    <t>CCC/999/182</t>
+    <t>PMT/CCC/003017/500</t>
   </si>
   <si>
     <t>0.39.430</t>
-  </si>
-  <si>
-    <t>CCC/999/183</t>
-  </si>
-  <si>
-    <t>NJUE</t>
-  </si>
-  <si>
-    <t>0.39.431</t>
-  </si>
-  <si>
-    <t>CCC/999/184</t>
-  </si>
-  <si>
-    <t>0.39.432</t>
-  </si>
-  <si>
-    <t>CCC/999/185</t>
-  </si>
-  <si>
-    <t>0.39.433</t>
-  </si>
-  <si>
-    <t>CCC/999/186</t>
-  </si>
-  <si>
-    <t>0.39.434</t>
-  </si>
-  <si>
-    <t>CCC/999/187</t>
-  </si>
-  <si>
-    <t>0.39.435</t>
-  </si>
-  <si>
-    <t>CCC/999/188</t>
-  </si>
-  <si>
-    <t>0.39.436</t>
-  </si>
-  <si>
-    <t>CCC/999/189</t>
-  </si>
-  <si>
-    <t>0.39.437</t>
-  </si>
-  <si>
-    <t>CCC/999/190</t>
-  </si>
-  <si>
-    <t>0.39.438</t>
-  </si>
-  <si>
-    <t>CCC/999/191</t>
-  </si>
-  <si>
-    <t>Error 830</t>
-  </si>
-  <si>
-    <t>0.39.439</t>
-  </si>
-  <si>
-    <t>CCC/999/192</t>
-  </si>
-  <si>
-    <t>Error 310</t>
-  </si>
-  <si>
-    <t>0.39.440</t>
-  </si>
-  <si>
-    <t>CCC/999/193</t>
-  </si>
-  <si>
-    <t>Error 930</t>
-  </si>
-  <si>
-    <t>0.39.441</t>
-  </si>
-  <si>
-    <t>CCC/999/194</t>
-  </si>
-  <si>
-    <t>0.39.442</t>
-  </si>
-  <si>
-    <t>CCC/999/195</t>
-  </si>
-  <si>
-    <t>0.39.443</t>
-  </si>
-  <si>
-    <t>CCC/999/196</t>
-  </si>
-  <si>
-    <t>0.39.444</t>
-  </si>
-  <si>
-    <t>CCC/999/197</t>
-  </si>
-  <si>
-    <t>0.39.445</t>
-  </si>
-  <si>
-    <t>CCC/999/198</t>
-  </si>
-  <si>
-    <t>0.39.446</t>
-  </si>
-  <si>
-    <t>CCC/999/199</t>
-  </si>
-  <si>
-    <t>Error 920</t>
-  </si>
-  <si>
-    <t>0.39.447</t>
-  </si>
-  <si>
-    <t>CCC/999/200</t>
-  </si>
-  <si>
-    <t>0.39.448</t>
-  </si>
-  <si>
-    <t>CCC/999/201</t>
-  </si>
-  <si>
-    <t>0.39.449</t>
-  </si>
-  <si>
-    <t>CCC/999/202</t>
-  </si>
-  <si>
-    <t>0.39.450</t>
-  </si>
-  <si>
-    <t>CCC/999/203</t>
-  </si>
-  <si>
-    <t>Error 850</t>
-  </si>
-  <si>
-    <t>0.39.451</t>
   </si>
 </sst>
 </file>
@@ -3383,10 +3239,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P522"/>
+  <dimension ref="A1:P501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J522" sqref="J522"/>
+      <selection activeCell="J501" sqref="J501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3705,8 +3561,8 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
+      <c r="F7">
+        <v>123</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -3724,7 +3580,7 @@
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
         <v>20</v>
@@ -3750,10 +3606,10 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -3797,7 +3653,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>624</v>
@@ -3844,7 +3700,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>181</v>
@@ -3891,7 +3747,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>183</v>
@@ -3938,7 +3794,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>494</v>
@@ -3985,7 +3841,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>183</v>
@@ -4032,10 +3888,10 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>171</v>
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
@@ -4053,7 +3909,7 @@
         <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
         <v>20</v>
@@ -4079,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>402</v>
@@ -4126,7 +3982,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>191</v>
@@ -4173,7 +4029,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>183</v>
@@ -4220,7 +4076,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>372</v>
@@ -4267,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>61</v>
@@ -4314,7 +4170,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>183</v>
@@ -4361,7 +4217,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>191</v>
@@ -4408,7 +4264,7 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>183</v>
@@ -4455,7 +4311,7 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>183</v>
@@ -4502,10 +4358,10 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>1273</v>
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
@@ -4523,7 +4379,7 @@
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
         <v>20</v>
@@ -4549,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>130</v>
@@ -4596,7 +4452,7 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26">
         <v>175</v>
@@ -4643,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>220</v>
@@ -4690,7 +4546,7 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>265</v>
@@ -4737,7 +4593,7 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>310</v>
@@ -4784,7 +4640,7 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>355</v>
@@ -4831,7 +4687,7 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>400</v>
@@ -4878,7 +4734,7 @@
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32">
         <v>445</v>
@@ -4925,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>490</v>
@@ -4972,7 +4828,7 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>535</v>
@@ -5019,7 +4875,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>580</v>
@@ -5066,7 +4922,7 @@
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36">
         <v>625</v>
@@ -5113,7 +4969,7 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37">
         <v>670</v>
@@ -5160,7 +5016,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38">
         <v>715</v>
@@ -5207,7 +5063,7 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <v>760</v>
@@ -5254,7 +5110,7 @@
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>805</v>
@@ -5301,7 +5157,7 @@
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <v>850</v>
@@ -5348,7 +5204,7 @@
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42">
         <v>895</v>
@@ -5395,13 +5251,13 @@
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43">
         <v>940</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="1">
         <v>41109.958333333</v>
@@ -5442,13 +5298,13 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44">
         <v>985</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="1">
         <v>41109.958333333</v>
@@ -5489,13 +5345,13 @@
         <v>17</v>
       </c>
       <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" t="s">
         <v>72</v>
       </c>
-      <c r="G45" t="s">
-        <v>73</v>
-      </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="1">
         <v>41109.958333333</v>
@@ -5536,13 +5392,13 @@
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F46">
         <v>105</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" s="1">
         <v>41109.958333333</v>
@@ -5583,13 +5439,13 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47">
         <v>150</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="1">
         <v>41109.958333333</v>
@@ -5630,13 +5486,13 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48">
         <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="1">
         <v>41109.958333333</v>
@@ -5677,13 +5533,13 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F49">
         <v>240</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I49" s="1">
         <v>41109.958333333</v>
@@ -5724,13 +5580,13 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F50">
         <v>514</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="1">
         <v>41109.958333333</v>
@@ -5771,13 +5627,13 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F51">
         <v>559</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="1">
         <v>41109.958333333</v>
@@ -5818,13 +5674,13 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52">
         <v>604</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="1">
         <v>41109.958333333</v>
@@ -5865,13 +5721,13 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53">
         <v>649</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I53" s="1">
         <v>41109.958333333</v>
@@ -5912,13 +5768,13 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F54">
         <v>694</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I54" s="1">
         <v>41110.958333333</v>
@@ -5959,13 +5815,13 @@
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F55">
         <v>739</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="1">
         <v>41109.958333333</v>
@@ -6006,13 +5862,13 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56">
         <v>784</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="1">
         <v>41109.958333333</v>
@@ -6053,13 +5909,13 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57">
         <v>829</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="1">
         <v>41109.958333333</v>
@@ -6100,13 +5956,13 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58">
         <v>874</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I58" s="1">
         <v>41109.958333333</v>
@@ -6147,13 +6003,13 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F59">
         <v>919</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I59" s="1">
         <v>41109.958333333</v>
@@ -6194,13 +6050,13 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60">
         <v>964</v>
       </c>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I60" s="1">
         <v>41109.958333333</v>
@@ -6241,13 +6097,13 @@
         <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61">
         <v>1009</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I61" s="1">
         <v>41109.958333333</v>
@@ -6288,13 +6144,13 @@
         <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F62">
         <v>1054</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I62" s="1">
         <v>41109.958333333</v>
@@ -6335,13 +6191,13 @@
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63">
         <v>83</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I63" s="1">
         <v>41109.958333333</v>
@@ -6382,13 +6238,13 @@
         <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64">
         <v>128</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I64" s="1">
         <v>41109.958333333</v>
@@ -6429,13 +6285,13 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F65">
         <v>173</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I65" s="1">
         <v>41109.958333333</v>
@@ -6476,13 +6332,13 @@
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F66">
         <v>218</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I66" s="1">
         <v>41109.958333333</v>
@@ -6523,13 +6379,13 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F67">
         <v>116</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I67" s="1">
         <v>41109.958333333</v>
@@ -6570,13 +6426,13 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F68">
         <v>161</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" s="1">
         <v>41109.958333333</v>
@@ -6617,13 +6473,13 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69">
         <v>206</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I69" s="1">
         <v>41109.958333333</v>
@@ -6664,13 +6520,13 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F70">
         <v>127</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I70" s="1">
         <v>41109.958333333</v>
@@ -6711,13 +6567,13 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F71">
         <v>172</v>
       </c>
       <c r="H71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="1">
         <v>41109.958333333</v>
@@ -6758,13 +6614,13 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F72">
         <v>217</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I72" s="1">
         <v>41109.958333333</v>
@@ -6805,13 +6661,13 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F73">
         <v>167</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I73" s="1">
         <v>41128.958333333</v>
@@ -6836,7 +6692,7 @@
         <v>20</v>
       </c>
       <c r="P73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -6853,13 +6709,13 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F74">
         <v>117</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I74" s="1">
         <v>41128.958333333</v>
@@ -6883,7 +6739,7 @@
         <v>20</v>
       </c>
       <c r="P74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -6900,13 +6756,13 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F75">
         <v>67</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I75" s="1">
         <v>41128.958333333</v>
@@ -6930,7 +6786,7 @@
         <v>20</v>
       </c>
       <c r="P75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6947,13 +6803,13 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F76">
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I76" s="1">
         <v>41128.958333333</v>
@@ -6977,7 +6833,7 @@
         <v>20</v>
       </c>
       <c r="P76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6994,13 +6850,13 @@
         <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F77">
         <v>254</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I77" s="1">
         <v>41128.958333333</v>
@@ -7024,7 +6880,7 @@
         <v>20</v>
       </c>
       <c r="P77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -7041,13 +6897,13 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F78">
         <v>491</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I78" s="1">
         <v>41128.958333333</v>
@@ -7071,7 +6927,7 @@
         <v>20</v>
       </c>
       <c r="P78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7088,13 +6944,13 @@
         <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79">
         <v>728</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I79" s="1">
         <v>41128.958333333</v>
@@ -7118,7 +6974,7 @@
         <v>20</v>
       </c>
       <c r="P79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7135,13 +6991,13 @@
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F80">
         <v>965</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I80" s="1">
         <v>41128.958333333</v>
@@ -7165,7 +7021,7 @@
         <v>20</v>
       </c>
       <c r="P80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7182,13 +7038,13 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F81">
         <v>1202</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I81" s="1">
         <v>41128.958333333</v>
@@ -7212,7 +7068,7 @@
         <v>20</v>
       </c>
       <c r="P81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7229,13 +7085,13 @@
         <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F82">
         <v>1107</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I82" s="1">
         <v>41128.958333333</v>
@@ -7259,7 +7115,7 @@
         <v>20</v>
       </c>
       <c r="P82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -7276,13 +7132,13 @@
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F83">
         <v>1012</v>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I83" s="1">
         <v>41132.958333333</v>
@@ -7306,7 +7162,7 @@
         <v>20</v>
       </c>
       <c r="P83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -7323,13 +7179,13 @@
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F84">
         <v>917</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I84" s="1">
         <v>41133.958333333</v>
@@ -7353,7 +7209,7 @@
         <v>20</v>
       </c>
       <c r="P84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7370,13 +7226,13 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F85">
         <v>822</v>
       </c>
       <c r="H85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I85" s="1">
         <v>41133.958333333</v>
@@ -7400,7 +7256,7 @@
         <v>20</v>
       </c>
       <c r="P85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7417,13 +7273,13 @@
         <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F86">
         <v>727</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I86" s="1">
         <v>41135.958333333</v>
@@ -7447,7 +7303,7 @@
         <v>20</v>
       </c>
       <c r="P86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7464,13 +7320,13 @@
         <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F87">
         <v>632</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I87" s="1">
         <v>41135.958333333</v>
@@ -7494,7 +7350,7 @@
         <v>20</v>
       </c>
       <c r="P87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7511,13 +7367,13 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F88">
         <v>537</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I88" s="1">
         <v>41135.958333333</v>
@@ -7541,7 +7397,7 @@
         <v>20</v>
       </c>
       <c r="P88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7558,13 +7414,13 @@
         <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F89">
         <v>442</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I89" s="1">
         <v>41135.958333333</v>
@@ -7588,7 +7444,7 @@
         <v>20</v>
       </c>
       <c r="P89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7605,13 +7461,13 @@
         <v>17</v>
       </c>
       <c r="E90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F90">
         <v>347</v>
       </c>
       <c r="H90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I90" s="1">
         <v>41135.958333333</v>
@@ -7635,7 +7491,7 @@
         <v>20</v>
       </c>
       <c r="P90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -7652,13 +7508,13 @@
         <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F91">
         <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I91" s="1">
         <v>41135.958333333</v>
@@ -7682,7 +7538,7 @@
         <v>20</v>
       </c>
       <c r="P91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7699,13 +7555,13 @@
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F92">
         <v>157</v>
       </c>
       <c r="H92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I92" s="1">
         <v>41135.958333333</v>
@@ -7729,7 +7585,7 @@
         <v>20</v>
       </c>
       <c r="P92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7746,13 +7602,13 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93">
         <v>62</v>
       </c>
       <c r="H93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I93" s="1">
         <v>41135.958333333</v>
@@ -7776,7 +7632,7 @@
         <v>20</v>
       </c>
       <c r="P93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -7793,13 +7649,13 @@
         <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F94">
         <v>33</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I94" s="1">
         <v>41135.958333333</v>
@@ -7823,7 +7679,7 @@
         <v>20</v>
       </c>
       <c r="P94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -7840,13 +7696,13 @@
         <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F95">
         <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I95" s="1">
         <v>41135.958333333</v>
@@ -7870,7 +7726,7 @@
         <v>20</v>
       </c>
       <c r="P95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -7887,13 +7743,13 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F96">
         <v>87</v>
       </c>
       <c r="H96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I96" s="1">
         <v>41135.958333333</v>
@@ -7917,7 +7773,7 @@
         <v>20</v>
       </c>
       <c r="P96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7934,13 +7790,13 @@
         <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F97">
         <v>114</v>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I97" s="1">
         <v>41136.958333333</v>
@@ -7964,7 +7820,7 @@
         <v>20</v>
       </c>
       <c r="P97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7981,13 +7837,13 @@
         <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F98">
         <v>141</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I98" s="1">
         <v>41136.958333333</v>
@@ -8011,7 +7867,7 @@
         <v>20</v>
       </c>
       <c r="P98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -8028,13 +7884,13 @@
         <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F99">
         <v>168</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I99" s="1">
         <v>41136.958333333</v>
@@ -8058,7 +7914,7 @@
         <v>20</v>
       </c>
       <c r="P99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -8075,13 +7931,13 @@
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F100">
         <v>195</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I100" s="1">
         <v>41136.958333333</v>
@@ -8105,7 +7961,7 @@
         <v>20</v>
       </c>
       <c r="P100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -8122,13 +7978,13 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F101">
         <v>222</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I101" s="1">
         <v>41137.958333333</v>
@@ -8152,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="P101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -8169,13 +8025,13 @@
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F102">
         <v>249</v>
       </c>
       <c r="H102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I102" s="1">
         <v>41137.958333333</v>
@@ -8199,7 +8055,7 @@
         <v>20</v>
       </c>
       <c r="P102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -8216,13 +8072,13 @@
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F103">
         <v>276</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I103" s="1">
         <v>41137.958333333</v>
@@ -8246,7 +8102,7 @@
         <v>20</v>
       </c>
       <c r="P103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -8263,13 +8119,13 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F104">
         <v>303</v>
       </c>
       <c r="H104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I104" s="1">
         <v>41137.958333333</v>
@@ -8293,7 +8149,7 @@
         <v>20</v>
       </c>
       <c r="P104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -8310,13 +8166,13 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F105">
         <v>330</v>
       </c>
       <c r="H105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I105" s="1">
         <v>41137.958333333</v>
@@ -8340,7 +8196,7 @@
         <v>20</v>
       </c>
       <c r="P105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8357,13 +8213,13 @@
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F106">
         <v>357</v>
       </c>
       <c r="H106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I106" s="1">
         <v>41137.958333333</v>
@@ -8387,7 +8243,7 @@
         <v>20</v>
       </c>
       <c r="P106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -8404,13 +8260,13 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F107">
         <v>384</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I107" s="1">
         <v>41137.958333333</v>
@@ -8434,7 +8290,7 @@
         <v>20</v>
       </c>
       <c r="P107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8451,13 +8307,13 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F108">
         <v>411</v>
       </c>
       <c r="H108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I108" s="1">
         <v>41137.958333333</v>
@@ -8481,7 +8337,7 @@
         <v>20</v>
       </c>
       <c r="P108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8498,13 +8354,13 @@
         <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F109">
         <v>438</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I109" s="1">
         <v>41137.958333333</v>
@@ -8528,7 +8384,7 @@
         <v>20</v>
       </c>
       <c r="P109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8545,13 +8401,13 @@
         <v>17</v>
       </c>
       <c r="E110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F110">
         <v>465</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I110" s="1">
         <v>41137.958333333</v>
@@ -8575,7 +8431,7 @@
         <v>20</v>
       </c>
       <c r="P110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8592,13 +8448,13 @@
         <v>17</v>
       </c>
       <c r="E111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F111">
         <v>492</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I111" s="1">
         <v>41144.958333333</v>
@@ -8622,7 +8478,7 @@
         <v>20</v>
       </c>
       <c r="P111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8639,13 +8495,13 @@
         <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F112">
         <v>519</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I112" s="1">
         <v>41144.958333333</v>
@@ -8669,7 +8525,7 @@
         <v>20</v>
       </c>
       <c r="P112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8686,13 +8542,13 @@
         <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F113">
         <v>546</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I113" s="1">
         <v>41144.958333333</v>
@@ -8716,7 +8572,7 @@
         <v>20</v>
       </c>
       <c r="P113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8733,13 +8589,13 @@
         <v>17</v>
       </c>
       <c r="E114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F114">
         <v>573</v>
       </c>
       <c r="H114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I114" s="1">
         <v>41144.958333333</v>
@@ -8763,7 +8619,7 @@
         <v>20</v>
       </c>
       <c r="P114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8780,13 +8636,13 @@
         <v>17</v>
       </c>
       <c r="E115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F115">
         <v>600</v>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I115" s="1">
         <v>41144.958333333</v>
@@ -8810,7 +8666,7 @@
         <v>20</v>
       </c>
       <c r="P115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8827,13 +8683,13 @@
         <v>17</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F116">
         <v>627</v>
       </c>
       <c r="H116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I116" s="1">
         <v>41144.958333333</v>
@@ -8857,7 +8713,7 @@
         <v>20</v>
       </c>
       <c r="P116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8874,13 +8730,13 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F117">
         <v>654</v>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I117" s="1">
         <v>41144.958333333</v>
@@ -8904,7 +8760,7 @@
         <v>20</v>
       </c>
       <c r="P117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8921,13 +8777,13 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F118">
         <v>681</v>
       </c>
       <c r="H118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I118" s="1">
         <v>41144.958333333</v>
@@ -8951,7 +8807,7 @@
         <v>20</v>
       </c>
       <c r="P118" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8968,13 +8824,13 @@
         <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F119">
         <v>708</v>
       </c>
       <c r="H119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I119" s="1">
         <v>41144.958333333</v>
@@ -8998,7 +8854,7 @@
         <v>20</v>
       </c>
       <c r="P119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -9015,7 +8871,7 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F120">
         <v>735</v>
@@ -9045,7 +8901,7 @@
         <v>20</v>
       </c>
       <c r="P120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -9062,7 +8918,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F121">
         <v>762</v>
@@ -9092,7 +8948,7 @@
         <v>20</v>
       </c>
       <c r="P121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -9109,7 +8965,7 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F122">
         <v>789</v>
@@ -9139,7 +8995,7 @@
         <v>20</v>
       </c>
       <c r="P122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -9156,7 +9012,7 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F123">
         <v>816</v>
@@ -9186,7 +9042,7 @@
         <v>20</v>
       </c>
       <c r="P123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -9203,7 +9059,7 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F124">
         <v>843</v>
@@ -9233,7 +9089,7 @@
         <v>20</v>
       </c>
       <c r="P124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -9250,7 +9106,7 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F125">
         <v>870</v>
@@ -9280,7 +9136,7 @@
         <v>20</v>
       </c>
       <c r="P125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -9297,7 +9153,7 @@
         <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G126" t="s">
         <v>24</v>
@@ -9327,7 +9183,7 @@
         <v>20</v>
       </c>
       <c r="P126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -9344,7 +9200,7 @@
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G127" t="s">
         <v>27</v>
@@ -9374,7 +9230,7 @@
         <v>20</v>
       </c>
       <c r="P127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -9391,7 +9247,7 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F128">
         <v>512</v>
@@ -9421,7 +9277,7 @@
         <v>20</v>
       </c>
       <c r="P128" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -9438,7 +9294,7 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F129">
         <v>200</v>
@@ -9468,7 +9324,7 @@
         <v>20</v>
       </c>
       <c r="P129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -9485,10 +9341,10 @@
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H130" t="s">
         <v>19</v>
@@ -9515,7 +9371,7 @@
         <v>20</v>
       </c>
       <c r="P130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -9532,7 +9388,7 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F131">
         <v>120</v>
@@ -9562,7 +9418,7 @@
         <v>20</v>
       </c>
       <c r="P131" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -9579,7 +9435,7 @@
         <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F132">
         <v>122</v>
@@ -9609,7 +9465,7 @@
         <v>20</v>
       </c>
       <c r="P132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -9626,7 +9482,7 @@
         <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F133">
         <v>190</v>
@@ -9656,7 +9512,7 @@
         <v>20</v>
       </c>
       <c r="P133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -9673,7 +9529,7 @@
         <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F134">
         <v>123</v>
@@ -9703,7 +9559,7 @@
         <v>20</v>
       </c>
       <c r="P134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -9720,7 +9576,7 @@
         <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F135">
         <v>123</v>
@@ -9750,7 +9606,7 @@
         <v>20</v>
       </c>
       <c r="P135" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -9767,7 +9623,7 @@
         <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G136" t="s">
         <v>30</v>
@@ -9797,7 +9653,7 @@
         <v>20</v>
       </c>
       <c r="P136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -9814,10 +9670,10 @@
         <v>17</v>
       </c>
       <c r="E137" t="s">
+        <v>228</v>
+      </c>
+      <c r="G137" t="s">
         <v>229</v>
-      </c>
-      <c r="G137" t="s">
-        <v>32</v>
       </c>
       <c r="H137" t="s">
         <v>19</v>
@@ -17951,7 +17807,7 @@
         <v>465</v>
       </c>
       <c r="H310" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I310" s="1">
         <v>41177.958333333</v>
@@ -17998,7 +17854,7 @@
         <v>405</v>
       </c>
       <c r="H311" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I311" s="1">
         <v>41177.958333333</v>
@@ -18045,7 +17901,7 @@
         <v>345</v>
       </c>
       <c r="H312" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I312" s="1">
         <v>41177.958333333</v>
@@ -18092,7 +17948,7 @@
         <v>285</v>
       </c>
       <c r="H313" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I313" s="1">
         <v>41177.958333333</v>
@@ -18139,7 +17995,7 @@
         <v>225</v>
       </c>
       <c r="H314" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I314" s="1">
         <v>41177.958333333</v>
@@ -18186,7 +18042,7 @@
         <v>165</v>
       </c>
       <c r="H315" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I315" s="1">
         <v>41177.958333333</v>
@@ -18233,7 +18089,7 @@
         <v>105</v>
       </c>
       <c r="H316" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I316" s="1">
         <v>41177.958333333</v>
@@ -18280,7 +18136,7 @@
         <v>326</v>
       </c>
       <c r="H317" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I317" s="1">
         <v>41177.958333333</v>
@@ -18327,7 +18183,7 @@
         <v>266</v>
       </c>
       <c r="H318" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I318" s="1">
         <v>41177.958333333</v>
@@ -18374,7 +18230,7 @@
         <v>206</v>
       </c>
       <c r="H319" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I319" s="1">
         <v>41177.958333333</v>
@@ -18421,7 +18277,7 @@
         <v>146</v>
       </c>
       <c r="H320" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I320" s="1">
         <v>41177.958333333</v>
@@ -18468,7 +18324,7 @@
         <v>86</v>
       </c>
       <c r="H321" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I321" s="1">
         <v>41178.958333333</v>
@@ -18515,7 +18371,7 @@
         <v>26</v>
       </c>
       <c r="H322" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I322" s="1">
         <v>41178.958333333</v>
@@ -18562,7 +18418,7 @@
         <v>555</v>
       </c>
       <c r="H323" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I323" s="1">
         <v>41178.958333333</v>
@@ -18609,7 +18465,7 @@
         <v>495</v>
       </c>
       <c r="H324" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I324" s="1">
         <v>41178.958333333</v>
@@ -18656,7 +18512,7 @@
         <v>435</v>
       </c>
       <c r="H325" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I325" s="1">
         <v>41178.958333333</v>
@@ -18703,7 +18559,7 @@
         <v>375</v>
       </c>
       <c r="H326" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I326" s="1">
         <v>41184.958333333</v>
@@ -18750,7 +18606,7 @@
         <v>315</v>
       </c>
       <c r="H327" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I327" s="1">
         <v>41184.958333333</v>
@@ -18797,7 +18653,7 @@
         <v>255</v>
       </c>
       <c r="H328" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I328" s="1">
         <v>41184.958333333</v>
@@ -18844,7 +18700,7 @@
         <v>195</v>
       </c>
       <c r="H329" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I329" s="1">
         <v>41184.958333333</v>
@@ -18891,7 +18747,7 @@
         <v>135</v>
       </c>
       <c r="H330" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I330" s="1">
         <v>41184.958333333</v>
@@ -18938,7 +18794,7 @@
         <v>75</v>
       </c>
       <c r="H331" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I331" s="1">
         <v>41184.958333333</v>
@@ -18985,7 +18841,7 @@
         <v>15</v>
       </c>
       <c r="H332" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I332" s="1">
         <v>41184.958333333</v>
@@ -19032,7 +18888,7 @@
         <v>67</v>
       </c>
       <c r="H333" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I333" s="1">
         <v>41184.958333333</v>
@@ -19079,7 +18935,7 @@
         <v>7</v>
       </c>
       <c r="H334" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I334" s="1">
         <v>41184.958333333</v>
@@ -19126,7 +18982,7 @@
         <v>345</v>
       </c>
       <c r="H335" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I335" s="1">
         <v>41184.958333333</v>
@@ -19173,7 +19029,7 @@
         <v>285</v>
       </c>
       <c r="H336" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I336" s="1">
         <v>41184.958333333</v>
@@ -19220,7 +19076,7 @@
         <v>225</v>
       </c>
       <c r="H337" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I337" s="1">
         <v>41184.958333333</v>
@@ -19267,7 +19123,7 @@
         <v>165</v>
       </c>
       <c r="H338" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I338" s="1">
         <v>41184.958333333</v>
@@ -19314,7 +19170,7 @@
         <v>105</v>
       </c>
       <c r="H339" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I339" s="1">
         <v>41184.958333333</v>
@@ -19361,7 +19217,7 @@
         <v>45</v>
       </c>
       <c r="H340" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I340" s="1">
         <v>41184.958333333</v>
@@ -19408,7 +19264,7 @@
         <v>345</v>
       </c>
       <c r="H341" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I341" s="1">
         <v>41184.958333333</v>
@@ -19455,7 +19311,7 @@
         <v>285</v>
       </c>
       <c r="H342" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I342" s="1">
         <v>41184.958333333</v>
@@ -19502,7 +19358,7 @@
         <v>225</v>
       </c>
       <c r="H343" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I343" s="1">
         <v>41184.958333333</v>
@@ -19549,7 +19405,7 @@
         <v>165</v>
       </c>
       <c r="H344" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I344" s="1">
         <v>41184.958333333</v>
@@ -19596,7 +19452,7 @@
         <v>105</v>
       </c>
       <c r="H345" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I345" s="1">
         <v>41184.958333333</v>
@@ -19643,7 +19499,7 @@
         <v>45</v>
       </c>
       <c r="H346" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I346" s="1">
         <v>41184.958333333</v>
@@ -19690,7 +19546,7 @@
         <v>321</v>
       </c>
       <c r="H347" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I347" s="1">
         <v>41184.958333333</v>
@@ -19737,7 +19593,7 @@
         <v>261</v>
       </c>
       <c r="H348" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I348" s="1">
         <v>41184.958333333</v>
@@ -19784,7 +19640,7 @@
         <v>201</v>
       </c>
       <c r="H349" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I349" s="1">
         <v>41184.958333333</v>
@@ -19831,7 +19687,7 @@
         <v>141</v>
       </c>
       <c r="H350" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I350" s="1">
         <v>41184.958333333</v>
@@ -19878,7 +19734,7 @@
         <v>81</v>
       </c>
       <c r="H351" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I351" s="1">
         <v>41184.958333333</v>
@@ -19925,7 +19781,7 @@
         <v>21</v>
       </c>
       <c r="H352" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I352" s="1">
         <v>41184.958333333</v>
@@ -19972,7 +19828,7 @@
         <v>908</v>
       </c>
       <c r="H353" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I353" s="1">
         <v>41184.958333333</v>
@@ -20019,7 +19875,7 @@
         <v>848</v>
       </c>
       <c r="H354" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I354" s="1">
         <v>41184.958333333</v>
@@ -20066,7 +19922,7 @@
         <v>788</v>
       </c>
       <c r="H355" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I355" s="1">
         <v>41186.958333333</v>
@@ -20113,7 +19969,7 @@
         <v>728</v>
       </c>
       <c r="H356" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I356" s="1">
         <v>41186.958333333</v>
@@ -20160,7 +20016,7 @@
         <v>668</v>
       </c>
       <c r="H357" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I357" s="1">
         <v>41186.958333333</v>
@@ -20207,7 +20063,7 @@
         <v>608</v>
       </c>
       <c r="H358" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I358" s="1">
         <v>41186.958333333</v>
@@ -20254,7 +20110,7 @@
         <v>548</v>
       </c>
       <c r="H359" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I359" s="1">
         <v>41186.958333333</v>
@@ -20301,7 +20157,7 @@
         <v>488</v>
       </c>
       <c r="H360" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I360" s="1">
         <v>41186.958333333</v>
@@ -20348,7 +20204,7 @@
         <v>428</v>
       </c>
       <c r="H361" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I361" s="1">
         <v>41186.958333333</v>
@@ -20395,7 +20251,7 @@
         <v>368</v>
       </c>
       <c r="H362" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I362" s="1">
         <v>41186.958333333</v>
@@ -20442,7 +20298,7 @@
         <v>308</v>
       </c>
       <c r="H363" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I363" s="1">
         <v>41186.958333333</v>
@@ -20489,7 +20345,7 @@
         <v>248</v>
       </c>
       <c r="H364" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I364" s="1">
         <v>41186.958333333</v>
@@ -20536,7 +20392,7 @@
         <v>188</v>
       </c>
       <c r="H365" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I365" s="1">
         <v>41186.958333333</v>
@@ -20583,7 +20439,7 @@
         <v>128</v>
       </c>
       <c r="H366" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I366" s="1">
         <v>41186.958333333</v>
@@ -20630,7 +20486,7 @@
         <v>68</v>
       </c>
       <c r="H367" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I367" s="1">
         <v>41186.958333333</v>
@@ -20677,7 +20533,7 @@
         <v>8</v>
       </c>
       <c r="H368" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I368" s="1">
         <v>41186.958333333</v>
@@ -20724,7 +20580,7 @@
         <v>90</v>
       </c>
       <c r="H369" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I369" s="1">
         <v>41186.958333333</v>
@@ -20771,7 +20627,7 @@
         <v>30</v>
       </c>
       <c r="H370" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I370" s="1">
         <v>41186.958333333</v>
@@ -20818,7 +20674,7 @@
         <v>234</v>
       </c>
       <c r="H371" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I371" s="1">
         <v>41186.958333333</v>
@@ -20865,7 +20721,7 @@
         <v>174</v>
       </c>
       <c r="H372" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I372" s="1">
         <v>41186.958333333</v>
@@ -20912,7 +20768,7 @@
         <v>114</v>
       </c>
       <c r="H373" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I373" s="1">
         <v>41186.958333333</v>
@@ -20959,7 +20815,7 @@
         <v>54</v>
       </c>
       <c r="H374" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I374" s="1">
         <v>41186.958333333</v>
@@ -21006,7 +20862,7 @@
         <v>211</v>
       </c>
       <c r="H375" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I375" s="1">
         <v>41186.958333333</v>
@@ -21053,7 +20909,7 @@
         <v>151</v>
       </c>
       <c r="H376" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I376" s="1">
         <v>41186.958333333</v>
@@ -21100,7 +20956,7 @@
         <v>91</v>
       </c>
       <c r="H377" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I377" s="1">
         <v>41186.958333333</v>
@@ -21147,7 +21003,7 @@
         <v>31</v>
       </c>
       <c r="H378" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I378" s="1">
         <v>41189.958333333</v>
@@ -21194,7 +21050,7 @@
         <v>333</v>
       </c>
       <c r="H379" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I379" s="1">
         <v>41189.958333333</v>
@@ -21241,7 +21097,7 @@
         <v>333</v>
       </c>
       <c r="H380" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I380" s="1">
         <v>41189.958333333</v>
@@ -21288,7 +21144,7 @@
         <v>333</v>
       </c>
       <c r="H381" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I381" s="1">
         <v>41189.958333333</v>
@@ -21335,7 +21191,7 @@
         <v>333</v>
       </c>
       <c r="H382" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I382" s="1">
         <v>41189.958333333</v>
@@ -21382,7 +21238,7 @@
         <v>333</v>
       </c>
       <c r="H383" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I383" s="1">
         <v>41189.958333333</v>
@@ -21429,7 +21285,7 @@
         <v>333</v>
       </c>
       <c r="H384" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I384" s="1">
         <v>41189.958333333</v>
@@ -21476,7 +21332,7 @@
         <v>333</v>
       </c>
       <c r="H385" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I385" s="1">
         <v>41189.958333333</v>
@@ -21523,7 +21379,7 @@
         <v>333</v>
       </c>
       <c r="H386" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I386" s="1">
         <v>41189.958333333</v>
@@ -21570,7 +21426,7 @@
         <v>333</v>
       </c>
       <c r="H387" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I387" s="1">
         <v>41189.958333333</v>
@@ -21617,7 +21473,7 @@
         <v>333</v>
       </c>
       <c r="H388" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I388" s="1">
         <v>41189.958333333</v>
@@ -21664,7 +21520,7 @@
         <v>333</v>
       </c>
       <c r="H389" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I389" s="1">
         <v>41190.958333333</v>
@@ -21711,7 +21567,7 @@
         <v>333</v>
       </c>
       <c r="H390" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I390" s="1">
         <v>41190.958333333</v>
@@ -21758,7 +21614,7 @@
         <v>333</v>
       </c>
       <c r="H391" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I391" s="1">
         <v>41190.958333333</v>
@@ -21805,7 +21661,7 @@
         <v>333</v>
       </c>
       <c r="H392" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I392" s="1">
         <v>41190.958333333</v>
@@ -21852,7 +21708,7 @@
         <v>333</v>
       </c>
       <c r="H393" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I393" s="1">
         <v>41190.958333333</v>
@@ -21899,7 +21755,7 @@
         <v>333</v>
       </c>
       <c r="H394" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I394" s="1">
         <v>41190.958333333</v>
@@ -21946,7 +21802,7 @@
         <v>333</v>
       </c>
       <c r="H395" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I395" s="1">
         <v>41190.958333333</v>
@@ -21993,7 +21849,7 @@
         <v>333</v>
       </c>
       <c r="H396" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I396" s="1">
         <v>41190.958333333</v>
@@ -22040,7 +21896,7 @@
         <v>333</v>
       </c>
       <c r="H397" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I397" s="1">
         <v>41191.958333333</v>
@@ -22087,7 +21943,7 @@
         <v>333</v>
       </c>
       <c r="H398" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I398" s="1">
         <v>41191.958333333</v>
@@ -22134,7 +21990,7 @@
         <v>333</v>
       </c>
       <c r="H399" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I399" s="1">
         <v>41191.958333333</v>
@@ -22181,7 +22037,7 @@
         <v>333</v>
       </c>
       <c r="H400" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I400" s="1">
         <v>41191.958333333</v>
@@ -22228,7 +22084,7 @@
         <v>333</v>
       </c>
       <c r="H401" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I401" s="1">
         <v>41191.958333333</v>
@@ -22275,7 +22131,7 @@
         <v>333</v>
       </c>
       <c r="H402" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I402" s="1">
         <v>41191.958333333</v>
@@ -22322,7 +22178,7 @@
         <v>333</v>
       </c>
       <c r="H403" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I403" s="1">
         <v>41191.958333333</v>
@@ -22369,7 +22225,7 @@
         <v>333</v>
       </c>
       <c r="H404" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I404" s="1">
         <v>41196.958333333</v>
@@ -22416,7 +22272,7 @@
         <v>654</v>
       </c>
       <c r="H405" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I405" s="1">
         <v>41196.958333333</v>
@@ -22463,7 +22319,7 @@
         <v>654</v>
       </c>
       <c r="H406" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I406" s="1">
         <v>41196.958333333</v>
@@ -22510,7 +22366,7 @@
         <v>654</v>
       </c>
       <c r="H407" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I407" s="1">
         <v>41196.958333333</v>
@@ -22557,7 +22413,7 @@
         <v>654</v>
       </c>
       <c r="H408" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I408" s="1">
         <v>41196.958333333</v>
@@ -22604,7 +22460,7 @@
         <v>654</v>
       </c>
       <c r="H409" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I409" s="1">
         <v>41196.958333333</v>
@@ -22651,7 +22507,7 @@
         <v>641</v>
       </c>
       <c r="H410" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I410" s="1">
         <v>41196.958333333</v>
@@ -22698,7 +22554,7 @@
         <v>543</v>
       </c>
       <c r="H411" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I411" s="1">
         <v>41196.958333333</v>
@@ -22745,7 +22601,7 @@
         <v>388</v>
       </c>
       <c r="H412" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I412" s="1">
         <v>41196.958333333</v>
@@ -22792,7 +22648,7 @@
         <v>233</v>
       </c>
       <c r="H413" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I413" s="1">
         <v>41196.958333333</v>
@@ -22839,7 +22695,7 @@
         <v>78</v>
       </c>
       <c r="H414" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I414" s="1">
         <v>41196.958333333</v>
@@ -22886,7 +22742,7 @@
         <v>65</v>
       </c>
       <c r="H415" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I415" s="1">
         <v>41196.958333333</v>
@@ -22933,7 +22789,7 @@
         <v>432</v>
       </c>
       <c r="H416" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I416" s="1">
         <v>41196.958333333</v>
@@ -22980,7 +22836,7 @@
         <v>277</v>
       </c>
       <c r="H417" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I417" s="1">
         <v>41196.958333333</v>
@@ -23027,7 +22883,7 @@
         <v>122</v>
       </c>
       <c r="H418" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I418" s="1">
         <v>41196.958333333</v>
@@ -23074,7 +22930,7 @@
         <v>234</v>
       </c>
       <c r="H419" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I419" s="1">
         <v>41196.958333333</v>
@@ -23121,7 +22977,7 @@
         <v>79</v>
       </c>
       <c r="H420" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I420" s="1">
         <v>41196.958333333</v>
@@ -23168,7 +23024,7 @@
         <v>674</v>
       </c>
       <c r="H421" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I421" s="1">
         <v>41196.958333333</v>
@@ -23215,7 +23071,7 @@
         <v>519</v>
       </c>
       <c r="H422" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I422" s="1">
         <v>41196.958333333</v>
@@ -23262,7 +23118,7 @@
         <v>364</v>
       </c>
       <c r="H423" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I423" s="1">
         <v>41196.958333333</v>
@@ -23309,7 +23165,7 @@
         <v>209</v>
       </c>
       <c r="H424" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I424" s="1">
         <v>41197.958333333</v>
@@ -23356,7 +23212,7 @@
         <v>54</v>
       </c>
       <c r="H425" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I425" s="1">
         <v>41198.958333333</v>
@@ -23403,7 +23259,7 @@
         <v>543</v>
       </c>
       <c r="H426" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I426" s="1">
         <v>41198.958333333</v>
@@ -23450,7 +23306,7 @@
         <v>388</v>
       </c>
       <c r="H427" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I427" s="1">
         <v>41198.958333333</v>
@@ -23497,7 +23353,7 @@
         <v>233</v>
       </c>
       <c r="H428" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I428" s="1">
         <v>41200.958333333</v>
@@ -23544,7 +23400,7 @@
         <v>78</v>
       </c>
       <c r="H429" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I429" s="1">
         <v>41200.958333333</v>
@@ -23591,7 +23447,7 @@
         <v>111</v>
       </c>
       <c r="H430" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I430" s="1">
         <v>41200.958333333</v>
@@ -23638,7 +23494,7 @@
         <v>965</v>
       </c>
       <c r="H431" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I431" s="1">
         <v>41200.958333333</v>
@@ -23685,7 +23541,7 @@
         <v>810</v>
       </c>
       <c r="H432" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I432" s="1">
         <v>41200.958333333</v>
@@ -23732,7 +23588,7 @@
         <v>655</v>
       </c>
       <c r="H433" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I433" s="1">
         <v>41200.958333333</v>
@@ -23779,7 +23635,7 @@
         <v>500</v>
       </c>
       <c r="H434" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I434" s="1">
         <v>41200.958333333</v>
@@ -23826,7 +23682,7 @@
         <v>345</v>
       </c>
       <c r="H435" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I435" s="1">
         <v>41200.958333333</v>
@@ -23873,7 +23729,7 @@
         <v>190</v>
       </c>
       <c r="H436" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I436" s="1">
         <v>41200.958333333</v>
@@ -23920,7 +23776,7 @@
         <v>35</v>
       </c>
       <c r="H437" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I437" s="1">
         <v>41200.958333333</v>
@@ -23967,7 +23823,7 @@
         <v>390</v>
       </c>
       <c r="H438" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I438" s="1">
         <v>41201.958333333</v>
@@ -24014,7 +23870,7 @@
         <v>235</v>
       </c>
       <c r="H439" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I439" s="1">
         <v>41201.958333333</v>
@@ -24061,7 +23917,7 @@
         <v>80</v>
       </c>
       <c r="H440" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I440" s="1">
         <v>41201.958333333</v>
@@ -24108,7 +23964,7 @@
         <v>196</v>
       </c>
       <c r="H441" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I441" s="1">
         <v>41201.958333333</v>
@@ -24155,7 +24011,7 @@
         <v>41</v>
       </c>
       <c r="H442" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I442" s="1">
         <v>41201.958333333</v>
@@ -24202,7 +24058,7 @@
         <v>245</v>
       </c>
       <c r="H443" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I443" s="1">
         <v>41201.958333333</v>
@@ -24249,7 +24105,7 @@
         <v>90</v>
       </c>
       <c r="H444" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I444" s="1">
         <v>41201.958333333</v>
@@ -24296,7 +24152,7 @@
         <v>855</v>
       </c>
       <c r="H445" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I445" s="1">
         <v>41201.958333333</v>
@@ -24343,7 +24199,7 @@
         <v>700</v>
       </c>
       <c r="H446" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I446" s="1">
         <v>41201.958333333</v>
@@ -24390,7 +24246,7 @@
         <v>545</v>
       </c>
       <c r="H447" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I447" s="1">
         <v>41201.958333333</v>
@@ -24437,7 +24293,7 @@
         <v>390</v>
       </c>
       <c r="H448" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I448" s="1">
         <v>41201.958333333</v>
@@ -24484,7 +24340,7 @@
         <v>235</v>
       </c>
       <c r="H449" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I449" s="1">
         <v>41201.958333333</v>
@@ -24531,7 +24387,7 @@
         <v>80</v>
       </c>
       <c r="H450" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I450" s="1">
         <v>41201.958333333</v>
@@ -24578,7 +24434,7 @@
         <v>1200</v>
       </c>
       <c r="H451" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I451" s="1">
         <v>41201.958333333</v>
@@ -24625,7 +24481,7 @@
         <v>1045</v>
       </c>
       <c r="H452" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I452" s="1">
         <v>41201.958333333</v>
@@ -24672,7 +24528,7 @@
         <v>890</v>
       </c>
       <c r="H453" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I453" s="1">
         <v>41201.958333333</v>
@@ -24719,7 +24575,7 @@
         <v>735</v>
       </c>
       <c r="H454" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I454" s="1">
         <v>41201.958333333</v>
@@ -24766,7 +24622,7 @@
         <v>580</v>
       </c>
       <c r="H455" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I455" s="1">
         <v>41201.958333333</v>
@@ -24813,7 +24669,7 @@
         <v>425</v>
       </c>
       <c r="H456" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I456" s="1">
         <v>41201.958333333</v>
@@ -24860,7 +24716,7 @@
         <v>270</v>
       </c>
       <c r="H457" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I457" s="1">
         <v>41201.958333333</v>
@@ -24907,7 +24763,7 @@
         <v>115</v>
       </c>
       <c r="H458" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I458" s="1">
         <v>41201.958333333</v>
@@ -24954,7 +24810,7 @@
         <v>1200</v>
       </c>
       <c r="H459" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I459" s="1">
         <v>41201.958333333</v>
@@ -25001,7 +24857,7 @@
         <v>1045</v>
       </c>
       <c r="H460" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I460" s="1">
         <v>41201.958333333</v>
@@ -25048,7 +24904,7 @@
         <v>890</v>
       </c>
       <c r="H461" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I461" s="1">
         <v>41201.958333333</v>
@@ -25095,7 +24951,7 @@
         <v>735</v>
       </c>
       <c r="H462" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I462" s="1">
         <v>41204.958333333</v>
@@ -25142,7 +24998,7 @@
         <v>580</v>
       </c>
       <c r="H463" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I463" s="1">
         <v>41204.958333333</v>
@@ -25189,7 +25045,7 @@
         <v>425</v>
       </c>
       <c r="H464" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I464" s="1">
         <v>41204.958333333</v>
@@ -25236,7 +25092,7 @@
         <v>270</v>
       </c>
       <c r="H465" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I465" s="1">
         <v>41204.958333333</v>
@@ -25283,7 +25139,7 @@
         <v>115</v>
       </c>
       <c r="H466" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I466" s="1">
         <v>41204.958333333</v>
@@ -25330,7 +25186,7 @@
         <v>1345</v>
       </c>
       <c r="H467" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I467" s="1">
         <v>41204.958333333</v>
@@ -25377,7 +25233,7 @@
         <v>1190</v>
       </c>
       <c r="H468" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I468" s="1">
         <v>41204.958333333</v>
@@ -25424,7 +25280,7 @@
         <v>1035</v>
       </c>
       <c r="H469" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I469" s="1">
         <v>41204.958333333</v>
@@ -25471,7 +25327,7 @@
         <v>880</v>
       </c>
       <c r="H470" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I470" s="1">
         <v>41204.958333333</v>
@@ -25518,7 +25374,7 @@
         <v>725</v>
       </c>
       <c r="H471" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I471" s="1">
         <v>41204.958333333</v>
@@ -25565,7 +25421,7 @@
         <v>570</v>
       </c>
       <c r="H472" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I472" s="1">
         <v>41204.958333333</v>
@@ -25612,7 +25468,7 @@
         <v>415</v>
       </c>
       <c r="H473" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I473" s="1">
         <v>41204.958333333</v>
@@ -25659,7 +25515,7 @@
         <v>260</v>
       </c>
       <c r="H474" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I474" s="1">
         <v>41204.958333333</v>
@@ -25706,7 +25562,7 @@
         <v>105</v>
       </c>
       <c r="H475" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I475" s="1">
         <v>41207.958333333</v>
@@ -25753,7 +25609,7 @@
         <v>455</v>
       </c>
       <c r="H476" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I476" s="1">
         <v>41207.958333333</v>
@@ -25800,7 +25656,7 @@
         <v>300</v>
       </c>
       <c r="H477" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I477" s="1">
         <v>41207.958333333</v>
@@ -25847,7 +25703,7 @@
         <v>145</v>
       </c>
       <c r="H478" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I478" s="1">
         <v>41207.958333333</v>
@@ -25894,7 +25750,7 @@
         <v>866</v>
       </c>
       <c r="H479" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I479" s="1">
         <v>41207.958333333</v>
@@ -25941,7 +25797,7 @@
         <v>711</v>
       </c>
       <c r="H480" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I480" s="1">
         <v>41207.958333333</v>
@@ -25988,7 +25844,7 @@
         <v>556</v>
       </c>
       <c r="H481" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I481" s="1">
         <v>41207.958333333</v>
@@ -26035,7 +25891,7 @@
         <v>401</v>
       </c>
       <c r="H482" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I482" s="1">
         <v>41207.958333333</v>
@@ -26082,7 +25938,7 @@
         <v>246</v>
       </c>
       <c r="H483" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I483" s="1">
         <v>41207.958333333</v>
@@ -26129,7 +25985,7 @@
         <v>91</v>
       </c>
       <c r="H484" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I484" s="1">
         <v>41207.958333333</v>
@@ -26176,7 +26032,7 @@
         <v>421</v>
       </c>
       <c r="H485" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I485" s="1">
         <v>41207.958333333</v>
@@ -26223,7 +26079,7 @@
         <v>266</v>
       </c>
       <c r="H486" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I486" s="1">
         <v>41207.958333333</v>
@@ -26270,7 +26126,7 @@
         <v>111</v>
       </c>
       <c r="H487" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I487" s="1">
         <v>41207.958333333</v>
@@ -26317,7 +26173,7 @@
         <v>222</v>
       </c>
       <c r="H488" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I488" s="1">
         <v>41207.958333333</v>
@@ -26364,7 +26220,7 @@
         <v>67</v>
       </c>
       <c r="H489" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I489" s="1">
         <v>41207.958333333</v>
@@ -26411,7 +26267,7 @@
         <v>111</v>
       </c>
       <c r="H490" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I490" s="1">
         <v>41207.958333333</v>
@@ -26458,7 +26314,7 @@
         <v>123</v>
       </c>
       <c r="H491" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I491" s="1">
         <v>41209.958333333</v>
@@ -26505,7 +26361,7 @@
         <v>23</v>
       </c>
       <c r="H492" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I492" s="1">
         <v>41209.958333333</v>
@@ -26552,7 +26408,7 @@
         <v>56</v>
       </c>
       <c r="H493" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I493" s="1">
         <v>41209.958333333</v>
@@ -26599,7 +26455,7 @@
         <v>777</v>
       </c>
       <c r="H494" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I494" s="1">
         <v>41209.958333333</v>
@@ -26646,7 +26502,7 @@
         <v>622</v>
       </c>
       <c r="H495" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I495" s="1">
         <v>41209.958333333</v>
@@ -26693,7 +26549,7 @@
         <v>467</v>
       </c>
       <c r="H496" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I496" s="1">
         <v>41209.958333333</v>
@@ -26740,7 +26596,7 @@
         <v>312</v>
       </c>
       <c r="H497" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I497" s="1">
         <v>41211.958333333</v>
@@ -26787,7 +26643,7 @@
         <v>157</v>
       </c>
       <c r="H498" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I498" s="1">
         <v>41211.958333333</v>
@@ -26834,7 +26690,7 @@
         <v>2</v>
       </c>
       <c r="H499" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I499" s="1">
         <v>41211.958333333</v>
@@ -26881,7 +26737,7 @@
         <v>23</v>
       </c>
       <c r="H500" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I500" s="1">
         <v>41211.958333333</v>
@@ -26928,7 +26784,7 @@
         <v>12</v>
       </c>
       <c r="H501" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I501" s="1">
         <v>41211.958333333</v>
@@ -26953,993 +26809,6 @@
       </c>
       <c r="P501" t="s">
         <v>958</v>
-      </c>
-    </row>
-    <row r="502" spans="1:16">
-      <c r="A502">
-        <v>503</v>
-      </c>
-      <c r="B502" t="s">
-        <v>16</v>
-      </c>
-      <c r="C502">
-        <v>2</v>
-      </c>
-      <c r="D502" t="s">
-        <v>17</v>
-      </c>
-      <c r="E502" t="s">
-        <v>959</v>
-      </c>
-      <c r="F502">
-        <v>12</v>
-      </c>
-      <c r="H502" t="s">
-        <v>960</v>
-      </c>
-      <c r="I502" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J502" s="2">
-        <v>18.654167000001</v>
-      </c>
-      <c r="K502" t="s">
-        <v>20</v>
-      </c>
-      <c r="L502" t="s">
-        <v>20</v>
-      </c>
-      <c r="M502" t="s">
-        <v>20</v>
-      </c>
-      <c r="N502" t="s">
-        <v>20</v>
-      </c>
-      <c r="O502" t="s">
-        <v>20</v>
-      </c>
-      <c r="P502" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="503" spans="1:16">
-      <c r="A503">
-        <v>504</v>
-      </c>
-      <c r="B503" t="s">
-        <v>16</v>
-      </c>
-      <c r="C503">
-        <v>2</v>
-      </c>
-      <c r="D503" t="s">
-        <v>17</v>
-      </c>
-      <c r="E503" t="s">
-        <v>962</v>
-      </c>
-      <c r="F503">
-        <v>122</v>
-      </c>
-      <c r="H503" t="s">
-        <v>960</v>
-      </c>
-      <c r="I503" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J503" s="2">
-        <v>18.695833666667</v>
-      </c>
-      <c r="K503" t="s">
-        <v>20</v>
-      </c>
-      <c r="L503" t="s">
-        <v>20</v>
-      </c>
-      <c r="M503" t="s">
-        <v>20</v>
-      </c>
-      <c r="N503" t="s">
-        <v>20</v>
-      </c>
-      <c r="O503" t="s">
-        <v>20</v>
-      </c>
-      <c r="P503" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="504" spans="1:16">
-      <c r="A504">
-        <v>505</v>
-      </c>
-      <c r="B504" t="s">
-        <v>16</v>
-      </c>
-      <c r="C504">
-        <v>2</v>
-      </c>
-      <c r="D504" t="s">
-        <v>17</v>
-      </c>
-      <c r="E504" t="s">
-        <v>964</v>
-      </c>
-      <c r="F504">
-        <v>565</v>
-      </c>
-      <c r="H504" t="s">
-        <v>960</v>
-      </c>
-      <c r="I504" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J504" s="2">
-        <v>18.737500333334</v>
-      </c>
-      <c r="K504" t="s">
-        <v>20</v>
-      </c>
-      <c r="L504" t="s">
-        <v>20</v>
-      </c>
-      <c r="M504" t="s">
-        <v>20</v>
-      </c>
-      <c r="N504" t="s">
-        <v>20</v>
-      </c>
-      <c r="O504" t="s">
-        <v>20</v>
-      </c>
-      <c r="P504" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="505" spans="1:16">
-      <c r="A505">
-        <v>506</v>
-      </c>
-      <c r="B505" t="s">
-        <v>16</v>
-      </c>
-      <c r="C505">
-        <v>2</v>
-      </c>
-      <c r="D505" t="s">
-        <v>17</v>
-      </c>
-      <c r="E505" t="s">
-        <v>966</v>
-      </c>
-      <c r="F505">
-        <v>787</v>
-      </c>
-      <c r="H505" t="s">
-        <v>960</v>
-      </c>
-      <c r="I505" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J505" s="2">
-        <v>18.779167000001</v>
-      </c>
-      <c r="K505" t="s">
-        <v>20</v>
-      </c>
-      <c r="L505" t="s">
-        <v>20</v>
-      </c>
-      <c r="M505" t="s">
-        <v>20</v>
-      </c>
-      <c r="N505" t="s">
-        <v>20</v>
-      </c>
-      <c r="O505" t="s">
-        <v>20</v>
-      </c>
-      <c r="P505" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="506" spans="1:16">
-      <c r="A506">
-        <v>507</v>
-      </c>
-      <c r="B506" t="s">
-        <v>16</v>
-      </c>
-      <c r="C506">
-        <v>2</v>
-      </c>
-      <c r="D506" t="s">
-        <v>17</v>
-      </c>
-      <c r="E506" t="s">
-        <v>968</v>
-      </c>
-      <c r="F506">
-        <v>543</v>
-      </c>
-      <c r="H506" t="s">
-        <v>960</v>
-      </c>
-      <c r="I506" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J506" s="2">
-        <v>18.820833666667</v>
-      </c>
-      <c r="K506" t="s">
-        <v>20</v>
-      </c>
-      <c r="L506" t="s">
-        <v>20</v>
-      </c>
-      <c r="M506" t="s">
-        <v>20</v>
-      </c>
-      <c r="N506" t="s">
-        <v>20</v>
-      </c>
-      <c r="O506" t="s">
-        <v>20</v>
-      </c>
-      <c r="P506" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="507" spans="1:16">
-      <c r="A507">
-        <v>508</v>
-      </c>
-      <c r="B507" t="s">
-        <v>16</v>
-      </c>
-      <c r="C507">
-        <v>2</v>
-      </c>
-      <c r="D507" t="s">
-        <v>17</v>
-      </c>
-      <c r="E507" t="s">
-        <v>970</v>
-      </c>
-      <c r="F507">
-        <v>123</v>
-      </c>
-      <c r="H507" t="s">
-        <v>960</v>
-      </c>
-      <c r="I507" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J507" s="2">
-        <v>18.862500333334</v>
-      </c>
-      <c r="K507" t="s">
-        <v>20</v>
-      </c>
-      <c r="L507" t="s">
-        <v>20</v>
-      </c>
-      <c r="M507" t="s">
-        <v>20</v>
-      </c>
-      <c r="N507" t="s">
-        <v>20</v>
-      </c>
-      <c r="O507" t="s">
-        <v>20</v>
-      </c>
-      <c r="P507" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="508" spans="1:16">
-      <c r="A508">
-        <v>509</v>
-      </c>
-      <c r="B508" t="s">
-        <v>16</v>
-      </c>
-      <c r="C508">
-        <v>2</v>
-      </c>
-      <c r="D508" t="s">
-        <v>17</v>
-      </c>
-      <c r="E508" t="s">
-        <v>972</v>
-      </c>
-      <c r="F508">
-        <v>445</v>
-      </c>
-      <c r="H508" t="s">
-        <v>960</v>
-      </c>
-      <c r="I508" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J508" s="2">
-        <v>18.904167000001</v>
-      </c>
-      <c r="K508" t="s">
-        <v>20</v>
-      </c>
-      <c r="L508" t="s">
-        <v>20</v>
-      </c>
-      <c r="M508" t="s">
-        <v>20</v>
-      </c>
-      <c r="N508" t="s">
-        <v>20</v>
-      </c>
-      <c r="O508" t="s">
-        <v>20</v>
-      </c>
-      <c r="P508" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="509" spans="1:16">
-      <c r="A509">
-        <v>510</v>
-      </c>
-      <c r="B509" t="s">
-        <v>16</v>
-      </c>
-      <c r="C509">
-        <v>2</v>
-      </c>
-      <c r="D509" t="s">
-        <v>17</v>
-      </c>
-      <c r="E509" t="s">
-        <v>974</v>
-      </c>
-      <c r="F509">
-        <v>653</v>
-      </c>
-      <c r="H509" t="s">
-        <v>960</v>
-      </c>
-      <c r="I509" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J509" s="2">
-        <v>18.945833666667</v>
-      </c>
-      <c r="K509" t="s">
-        <v>20</v>
-      </c>
-      <c r="L509" t="s">
-        <v>20</v>
-      </c>
-      <c r="M509" t="s">
-        <v>20</v>
-      </c>
-      <c r="N509" t="s">
-        <v>20</v>
-      </c>
-      <c r="O509" t="s">
-        <v>20</v>
-      </c>
-      <c r="P509" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="510" spans="1:16">
-      <c r="A510">
-        <v>511</v>
-      </c>
-      <c r="B510" t="s">
-        <v>16</v>
-      </c>
-      <c r="C510">
-        <v>2</v>
-      </c>
-      <c r="D510" t="s">
-        <v>17</v>
-      </c>
-      <c r="E510" t="s">
-        <v>976</v>
-      </c>
-      <c r="G510" t="s">
-        <v>977</v>
-      </c>
-      <c r="H510" t="s">
-        <v>960</v>
-      </c>
-      <c r="I510" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J510" s="2">
-        <v>18.987500333334</v>
-      </c>
-      <c r="K510" t="s">
-        <v>20</v>
-      </c>
-      <c r="L510" t="s">
-        <v>20</v>
-      </c>
-      <c r="M510" t="s">
-        <v>28</v>
-      </c>
-      <c r="N510" t="s">
-        <v>20</v>
-      </c>
-      <c r="O510" t="s">
-        <v>20</v>
-      </c>
-      <c r="P510" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="511" spans="1:16">
-      <c r="A511">
-        <v>512</v>
-      </c>
-      <c r="B511" t="s">
-        <v>16</v>
-      </c>
-      <c r="C511">
-        <v>2</v>
-      </c>
-      <c r="D511" t="s">
-        <v>17</v>
-      </c>
-      <c r="E511" t="s">
-        <v>979</v>
-      </c>
-      <c r="G511" t="s">
-        <v>980</v>
-      </c>
-      <c r="H511" t="s">
-        <v>960</v>
-      </c>
-      <c r="I511" s="1">
-        <v>41211.958333333</v>
-      </c>
-      <c r="J511" s="2">
-        <v>19.029167000001</v>
-      </c>
-      <c r="K511" t="s">
-        <v>20</v>
-      </c>
-      <c r="L511" t="s">
-        <v>20</v>
-      </c>
-      <c r="M511" t="s">
-        <v>28</v>
-      </c>
-      <c r="N511" t="s">
-        <v>20</v>
-      </c>
-      <c r="O511" t="s">
-        <v>20</v>
-      </c>
-      <c r="P511" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="512" spans="1:16">
-      <c r="A512">
-        <v>513</v>
-      </c>
-      <c r="B512" t="s">
-        <v>16</v>
-      </c>
-      <c r="C512">
-        <v>2</v>
-      </c>
-      <c r="D512" t="s">
-        <v>17</v>
-      </c>
-      <c r="E512" t="s">
-        <v>982</v>
-      </c>
-      <c r="G512" t="s">
-        <v>983</v>
-      </c>
-      <c r="H512" t="s">
-        <v>960</v>
-      </c>
-      <c r="I512" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J512" s="2">
-        <v>19.070833666667</v>
-      </c>
-      <c r="K512" t="s">
-        <v>20</v>
-      </c>
-      <c r="L512" t="s">
-        <v>20</v>
-      </c>
-      <c r="M512" t="s">
-        <v>28</v>
-      </c>
-      <c r="N512" t="s">
-        <v>20</v>
-      </c>
-      <c r="O512" t="s">
-        <v>20</v>
-      </c>
-      <c r="P512" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="513" spans="1:16">
-      <c r="A513">
-        <v>514</v>
-      </c>
-      <c r="B513" t="s">
-        <v>16</v>
-      </c>
-      <c r="C513">
-        <v>2</v>
-      </c>
-      <c r="D513" t="s">
-        <v>17</v>
-      </c>
-      <c r="E513" t="s">
-        <v>985</v>
-      </c>
-      <c r="G513" t="s">
-        <v>983</v>
-      </c>
-      <c r="H513" t="s">
-        <v>960</v>
-      </c>
-      <c r="I513" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J513" s="2">
-        <v>19.112500333334</v>
-      </c>
-      <c r="K513" t="s">
-        <v>20</v>
-      </c>
-      <c r="L513" t="s">
-        <v>20</v>
-      </c>
-      <c r="M513" t="s">
-        <v>28</v>
-      </c>
-      <c r="N513" t="s">
-        <v>20</v>
-      </c>
-      <c r="O513" t="s">
-        <v>20</v>
-      </c>
-      <c r="P513" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="514" spans="1:16">
-      <c r="A514">
-        <v>515</v>
-      </c>
-      <c r="B514" t="s">
-        <v>16</v>
-      </c>
-      <c r="C514">
-        <v>2</v>
-      </c>
-      <c r="D514" t="s">
-        <v>17</v>
-      </c>
-      <c r="E514" t="s">
-        <v>987</v>
-      </c>
-      <c r="F514">
-        <v>783</v>
-      </c>
-      <c r="H514" t="s">
-        <v>960</v>
-      </c>
-      <c r="I514" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J514" s="2">
-        <v>19.154167000001</v>
-      </c>
-      <c r="K514" t="s">
-        <v>20</v>
-      </c>
-      <c r="L514" t="s">
-        <v>20</v>
-      </c>
-      <c r="M514" t="s">
-        <v>20</v>
-      </c>
-      <c r="N514" t="s">
-        <v>20</v>
-      </c>
-      <c r="O514" t="s">
-        <v>20</v>
-      </c>
-      <c r="P514" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="515" spans="1:16">
-      <c r="A515">
-        <v>516</v>
-      </c>
-      <c r="B515" t="s">
-        <v>16</v>
-      </c>
-      <c r="C515">
-        <v>2</v>
-      </c>
-      <c r="D515" t="s">
-        <v>17</v>
-      </c>
-      <c r="E515" t="s">
-        <v>989</v>
-      </c>
-      <c r="F515">
-        <v>343</v>
-      </c>
-      <c r="H515" t="s">
-        <v>960</v>
-      </c>
-      <c r="I515" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J515" s="2">
-        <v>19.195833666667</v>
-      </c>
-      <c r="K515" t="s">
-        <v>20</v>
-      </c>
-      <c r="L515" t="s">
-        <v>20</v>
-      </c>
-      <c r="M515" t="s">
-        <v>20</v>
-      </c>
-      <c r="N515" t="s">
-        <v>20</v>
-      </c>
-      <c r="O515" t="s">
-        <v>20</v>
-      </c>
-      <c r="P515" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="516" spans="1:16">
-      <c r="A516">
-        <v>517</v>
-      </c>
-      <c r="B516" t="s">
-        <v>16</v>
-      </c>
-      <c r="C516">
-        <v>2</v>
-      </c>
-      <c r="D516" t="s">
-        <v>17</v>
-      </c>
-      <c r="E516" t="s">
-        <v>991</v>
-      </c>
-      <c r="F516">
-        <v>443</v>
-      </c>
-      <c r="H516" t="s">
-        <v>960</v>
-      </c>
-      <c r="I516" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J516" s="2">
-        <v>19.237500333334</v>
-      </c>
-      <c r="K516" t="s">
-        <v>20</v>
-      </c>
-      <c r="L516" t="s">
-        <v>20</v>
-      </c>
-      <c r="M516" t="s">
-        <v>20</v>
-      </c>
-      <c r="N516" t="s">
-        <v>20</v>
-      </c>
-      <c r="O516" t="s">
-        <v>20</v>
-      </c>
-      <c r="P516" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="517" spans="1:16">
-      <c r="A517">
-        <v>518</v>
-      </c>
-      <c r="B517" t="s">
-        <v>16</v>
-      </c>
-      <c r="C517">
-        <v>2</v>
-      </c>
-      <c r="D517" t="s">
-        <v>17</v>
-      </c>
-      <c r="E517" t="s">
-        <v>993</v>
-      </c>
-      <c r="F517">
-        <v>6531</v>
-      </c>
-      <c r="H517" t="s">
-        <v>960</v>
-      </c>
-      <c r="I517" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J517" s="2">
-        <v>19.279167000001</v>
-      </c>
-      <c r="K517" t="s">
-        <v>20</v>
-      </c>
-      <c r="L517" t="s">
-        <v>20</v>
-      </c>
-      <c r="M517" t="s">
-        <v>20</v>
-      </c>
-      <c r="N517" t="s">
-        <v>20</v>
-      </c>
-      <c r="O517" t="s">
-        <v>20</v>
-      </c>
-      <c r="P517" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="518" spans="1:16">
-      <c r="A518">
-        <v>519</v>
-      </c>
-      <c r="B518" t="s">
-        <v>16</v>
-      </c>
-      <c r="C518">
-        <v>2</v>
-      </c>
-      <c r="D518" t="s">
-        <v>17</v>
-      </c>
-      <c r="E518" t="s">
-        <v>995</v>
-      </c>
-      <c r="G518" t="s">
-        <v>996</v>
-      </c>
-      <c r="H518" t="s">
-        <v>960</v>
-      </c>
-      <c r="I518" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J518" s="2">
-        <v>19.320833666667</v>
-      </c>
-      <c r="K518" t="s">
-        <v>20</v>
-      </c>
-      <c r="L518" t="s">
-        <v>20</v>
-      </c>
-      <c r="M518" t="s">
-        <v>28</v>
-      </c>
-      <c r="N518" t="s">
-        <v>20</v>
-      </c>
-      <c r="O518" t="s">
-        <v>20</v>
-      </c>
-      <c r="P518" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="519" spans="1:16">
-      <c r="A519">
-        <v>520</v>
-      </c>
-      <c r="B519" t="s">
-        <v>16</v>
-      </c>
-      <c r="C519">
-        <v>2</v>
-      </c>
-      <c r="D519" t="s">
-        <v>17</v>
-      </c>
-      <c r="E519" t="s">
-        <v>998</v>
-      </c>
-      <c r="F519">
-        <v>1211</v>
-      </c>
-      <c r="H519" t="s">
-        <v>960</v>
-      </c>
-      <c r="I519" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J519" s="2">
-        <v>19.362500333334</v>
-      </c>
-      <c r="K519" t="s">
-        <v>20</v>
-      </c>
-      <c r="L519" t="s">
-        <v>20</v>
-      </c>
-      <c r="M519" t="s">
-        <v>20</v>
-      </c>
-      <c r="N519" t="s">
-        <v>20</v>
-      </c>
-      <c r="O519" t="s">
-        <v>20</v>
-      </c>
-      <c r="P519" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="520" spans="1:16">
-      <c r="A520">
-        <v>521</v>
-      </c>
-      <c r="B520" t="s">
-        <v>16</v>
-      </c>
-      <c r="C520">
-        <v>2</v>
-      </c>
-      <c r="D520" t="s">
-        <v>17</v>
-      </c>
-      <c r="E520" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G520" t="s">
-        <v>977</v>
-      </c>
-      <c r="H520" t="s">
-        <v>960</v>
-      </c>
-      <c r="I520" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J520" s="2">
-        <v>19.404167000001</v>
-      </c>
-      <c r="K520" t="s">
-        <v>20</v>
-      </c>
-      <c r="L520" t="s">
-        <v>20</v>
-      </c>
-      <c r="M520" t="s">
-        <v>28</v>
-      </c>
-      <c r="N520" t="s">
-        <v>20</v>
-      </c>
-      <c r="O520" t="s">
-        <v>20</v>
-      </c>
-      <c r="P520" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="521" spans="1:16">
-      <c r="A521">
-        <v>522</v>
-      </c>
-      <c r="B521" t="s">
-        <v>16</v>
-      </c>
-      <c r="C521">
-        <v>2</v>
-      </c>
-      <c r="D521" t="s">
-        <v>17</v>
-      </c>
-      <c r="E521" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F521">
-        <v>890</v>
-      </c>
-      <c r="H521" t="s">
-        <v>960</v>
-      </c>
-      <c r="I521" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J521" s="2">
-        <v>19.445833666667</v>
-      </c>
-      <c r="K521" t="s">
-        <v>20</v>
-      </c>
-      <c r="L521" t="s">
-        <v>20</v>
-      </c>
-      <c r="M521" t="s">
-        <v>20</v>
-      </c>
-      <c r="N521" t="s">
-        <v>20</v>
-      </c>
-      <c r="O521" t="s">
-        <v>20</v>
-      </c>
-      <c r="P521" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="522" spans="1:16">
-      <c r="A522">
-        <v>523</v>
-      </c>
-      <c r="B522" t="s">
-        <v>16</v>
-      </c>
-      <c r="C522">
-        <v>2</v>
-      </c>
-      <c r="D522" t="s">
-        <v>17</v>
-      </c>
-      <c r="E522" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G522" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H522" t="s">
-        <v>960</v>
-      </c>
-      <c r="I522" s="1">
-        <v>41212.958333333</v>
-      </c>
-      <c r="J522" s="2">
-        <v>19.487500333334</v>
-      </c>
-      <c r="K522" t="s">
-        <v>20</v>
-      </c>
-      <c r="L522" t="s">
-        <v>20</v>
-      </c>
-      <c r="M522" t="s">
-        <v>28</v>
-      </c>
-      <c r="N522" t="s">
-        <v>20</v>
-      </c>
-      <c r="O522" t="s">
-        <v>20</v>
-      </c>
-      <c r="P522" t="s">
-        <v>1006</v>
       </c>
     </row>
   </sheetData>
